--- a/data/iartypre07.xlsx
+++ b/data/iartypre07.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.67051657574761747</v>
+        <v>0.94177140407173021</v>
       </c>
       <c r="B1">
-        <v>0.69670229984808474</v>
+        <v>0.9177873172320512</v>
       </c>
       <c r="C1">
-        <v>0.32948342425238253</v>
+        <v>0.05822859592826983</v>
       </c>
       <c r="D1">
-        <v>0.30329770015191526</v>
+        <v>0.082212682767948866</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.02265234618962431</v>
+        <v>0.0047023695552515319</v>
       </c>
       <c r="B2">
-        <v>0.017756780426713484</v>
+        <v>0.0054523706814333713</v>
       </c>
       <c r="C2">
-        <v>0.02265234618962431</v>
+        <v>0.0047023695552515319</v>
       </c>
       <c r="D2">
-        <v>0.017756780426713484</v>
+        <v>0.0054523706814333713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>29.600314692998165</v>
+        <v>200.27592323533457</v>
       </c>
       <c r="B3">
-        <v>39.235845863136234</v>
+        <v>168.32812199605888</v>
       </c>
       <c r="C3">
-        <v>14.545222887477292</v>
+        <v>12.382820032347533</v>
       </c>
       <c r="D3">
-        <v>17.080669629480301</v>
+        <v>15.078337033815906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>9.169356676504623e-142</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1.3611272715744133e-210</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.2040056993979691e-44</v>
+        <v>1.0056336636986517e-34</v>
       </c>
       <c r="D4">
-        <v>3.8773340200283134e-58</v>
+        <v>2.627757052224707e-50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.62606939360367109</v>
+        <v>0.93255276336578097</v>
       </c>
       <c r="B5">
-        <v>0.66186092636255589</v>
+        <v>0.90709835590793475</v>
       </c>
       <c r="C5">
-        <v>0.28503624210843614</v>
+        <v>0.049009955222320545</v>
       </c>
       <c r="D5">
-        <v>0.26845632666638641</v>
+        <v>0.071523721443832455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.71496375789156386</v>
+        <v>0.95099004477767946</v>
       </c>
       <c r="B6">
-        <v>0.73154367333361359</v>
+        <v>0.92847627855616766</v>
       </c>
       <c r="C6">
-        <v>0.37393060639632891</v>
+        <v>0.067447236634219115</v>
       </c>
       <c r="D6">
-        <v>0.33813907363744411</v>
+        <v>0.092901644092065278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B7">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C7">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D7">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B8">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C8">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D8">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="9">
@@ -182,114 +182,114 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.56718469358005341</v>
+        <v>0.92543762656303064</v>
       </c>
       <c r="B11">
-        <v>0.47112263360024986</v>
+        <v>0.85767894072659845</v>
       </c>
       <c r="C11">
-        <v>0.43281530641994659</v>
+        <v>0.07456237343696942</v>
       </c>
       <c r="D11">
-        <v>0.52887736639975014</v>
+        <v>0.1423210592734015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.023852124309301195</v>
+        <v>0.0052115062760954029</v>
       </c>
       <c r="B12">
-        <v>0.019015214139319472</v>
+        <v>0.0066866933787663313</v>
       </c>
       <c r="C12">
-        <v>0.023852124309301195</v>
+        <v>0.0052115062760954029</v>
       </c>
       <c r="D12">
-        <v>0.019015214139319472</v>
+        <v>0.0066866933787663313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>23.779210867137664</v>
+        <v>177.57584420610019</v>
       </c>
       <c r="B13">
-        <v>24.77608877546465</v>
+        <v>128.26652758599153</v>
       </c>
       <c r="C13">
-        <v>18.145776066208459</v>
+        <v>14.307259645638094</v>
       </c>
       <c r="D13">
-        <v>27.813379461561926</v>
+        <v>21.284220946236832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>5.2510587291345593e-101</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>7.7548689621591052e-108</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.6911057348934505e-64</v>
+        <v>1.4571525938829227e-45</v>
       </c>
       <c r="D14">
-        <v>4.5394961982874509e-129</v>
+        <v>2.0258835669976665e-96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.52038337309779992</v>
+        <v>0.91522086173167672</v>
       </c>
       <c r="B15">
-        <v>0.4338120310127086</v>
+        <v>0.84457018288750951</v>
       </c>
       <c r="C15">
-        <v>0.38601398593769304</v>
+        <v>0.064345608605615487</v>
       </c>
       <c r="D15">
-        <v>0.49156676381220887</v>
+        <v>0.1292123014343125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.61398601406230691</v>
+        <v>0.93565439139438455</v>
       </c>
       <c r="B16">
-        <v>0.50843323618779113</v>
+        <v>0.87078769856568738</v>
       </c>
       <c r="C16">
-        <v>0.47961662690220014</v>
+        <v>0.084779138268323354</v>
       </c>
       <c r="D16">
-        <v>0.5661879689872914</v>
+        <v>0.15542981711249049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B17">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C17">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D17">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B18">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C18">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D18">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="19">
@@ -308,114 +308,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.76229873067232923</v>
+        <v>0.95838512087487859</v>
       </c>
       <c r="B21">
-        <v>0.83217506655166529</v>
+        <v>0.95434384656944982</v>
       </c>
       <c r="C21">
-        <v>0.23770126932767094</v>
+        <v>0.041614879125121282</v>
       </c>
       <c r="D21">
-        <v>0.1678249334483346</v>
+        <v>0.045656153430550184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.020426225091207114</v>
+        <v>0.0040066461463428736</v>
       </c>
       <c r="B22">
-        <v>0.01417440880286887</v>
+        <v>0.0041702012732076892</v>
       </c>
       <c r="C22">
-        <v>0.020426225091207114</v>
+        <v>0.0040066461463428736</v>
       </c>
       <c r="D22">
-        <v>0.01417440880286887</v>
+        <v>0.0041702012732076892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>37.319608849335374</v>
+        <v>239.19884259049405</v>
       </c>
       <c r="B23">
-        <v>58.709684342054167</v>
+        <v>228.84838981293947</v>
       </c>
       <c r="C23">
-        <v>11.637063053319348</v>
+        <v>10.386462294182351</v>
       </c>
       <c r="D23">
-        <v>11.839995288859399</v>
+        <v>10.948189413273042</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>5.2938572760086075e-197</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.3855653573383051e-29</v>
+        <v>5.0391928923680979e-25</v>
       </c>
       <c r="D24">
-        <v>1.6471335122961956e-30</v>
+        <v>1.3623593980901296e-27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.72221952035379799</v>
+        <v>0.95053039341779011</v>
       </c>
       <c r="B25">
-        <v>0.80436282473927234</v>
+        <v>0.94616848162684108</v>
       </c>
       <c r="C25">
-        <v>0.19762205900913976</v>
+        <v>0.033760151668032777</v>
       </c>
       <c r="D25">
-        <v>0.14001269163594163</v>
+        <v>0.037480788487941459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.80237794099086046</v>
+        <v>0.96623984833196708</v>
       </c>
       <c r="B26">
-        <v>0.85998730836405823</v>
+        <v>0.96251921151205855</v>
       </c>
       <c r="C26">
-        <v>0.27778047964620212</v>
+        <v>0.049469606582209787</v>
       </c>
       <c r="D26">
-        <v>0.19563717526072757</v>
+        <v>0.053831518373158908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B27">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C27">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D27">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B28">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C28">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D28">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="29">
@@ -434,162 +434,162 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.69767441860465118</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="B31">
-        <v>0.64182194616977228</v>
+        <v>0.90431415929203529</v>
       </c>
       <c r="C31">
-        <v>0.72499999999999998</v>
+        <v>0.88650042992261402</v>
       </c>
       <c r="D31">
-        <v>0.30232558139534882</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="E31">
-        <v>0.35817805383022772</v>
+        <v>0.095685840707964598</v>
       </c>
       <c r="F31">
-        <v>0.27500000000000002</v>
+        <v>0.11349957007738606</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.040436074943253103</v>
+        <v>0.0028337856759787046</v>
       </c>
       <c r="B32">
-        <v>0.021816405758433275</v>
+        <v>0.0069180594670621978</v>
       </c>
       <c r="C32">
-        <v>0.020380495168992666</v>
+        <v>0.0093013658364096974</v>
       </c>
       <c r="D32">
-        <v>0.040436074943253103</v>
+        <v>0.0028337856759787046</v>
       </c>
       <c r="E32">
-        <v>0.021816405758433275</v>
+        <v>0.0069180594670621978</v>
       </c>
       <c r="F32">
-        <v>0.020380495168992666</v>
+        <v>0.0093013658364096974</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>17.25376213155576</v>
+        <v>346.58332331489902</v>
       </c>
       <c r="B33">
-        <v>29.419234005659792</v>
+        <v>130.71789330484876</v>
       </c>
       <c r="C33">
-        <v>35.573227931332646</v>
+        <v>95.308629454445892</v>
       </c>
       <c r="D33">
-        <v>7.4766302570074963</v>
+        <v>6.3015149693618007</v>
       </c>
       <c r="E33">
-        <v>16.417830590255299</v>
+        <v>13.831312257944244</v>
       </c>
       <c r="F33">
-        <v>13.493293353264109</v>
+        <v>12.202462742955243</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>3.7108095391119956e-59</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>1.7920391834474082e-140</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1.5308552327166931e-184</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1.5642744491740636e-13</v>
+        <v>3.1927438128916372e-10</v>
       </c>
       <c r="E34">
-        <v>2.7275372840551645e-54</v>
+        <v>9.5065313425335613e-43</v>
       </c>
       <c r="F34">
-        <v>1.7560118911525639e-38</v>
+        <v>8.789644487986905e-34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.6183329864570063</v>
+        <v>0.97658743414226823</v>
       </c>
       <c r="B35">
-        <v>0.59901500015393416</v>
+        <v>0.89075182569406985</v>
       </c>
       <c r="C35">
-        <v>0.68501051840824523</v>
+        <v>0.86826580401476872</v>
       </c>
       <c r="D35">
-        <v>0.22298414924770399</v>
+        <v>0.012301719856553966</v>
       </c>
       <c r="E35">
-        <v>0.31537110781438954</v>
+        <v>0.082123507109999216</v>
       </c>
       <c r="F35">
-        <v>0.23501051840824527</v>
+        <v>0.095264944169540788</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.77701585075229607</v>
+        <v>0.98769828014344596</v>
       </c>
       <c r="B36">
-        <v>0.6846288921856104</v>
+        <v>0.91787649289000073</v>
       </c>
       <c r="C36">
-        <v>0.76498948159175473</v>
+        <v>0.90473505583045932</v>
       </c>
       <c r="D36">
-        <v>0.38166701354299365</v>
+        <v>0.023412565857731747</v>
       </c>
       <c r="E36">
-        <v>0.40098499984606589</v>
+        <v>0.10924817430592998</v>
       </c>
       <c r="F36">
-        <v>0.31498948159175477</v>
+        <v>0.13173419598523134</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B37">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C37">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D37">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E37">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F37">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B38">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C38">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D38">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E38">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F38">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="39">
@@ -614,162 +614,162 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.66666666666666663</v>
+        <v>0.98031135531135527</v>
       </c>
       <c r="B41">
-        <v>0.56314699792960665</v>
+        <v>0.88329646017699104</v>
       </c>
       <c r="C41">
-        <v>0.42291666666666672</v>
+        <v>0.76182287188306108</v>
       </c>
       <c r="D41">
-        <v>0.33333333333333331</v>
+        <v>0.019688644688644688</v>
       </c>
       <c r="E41">
-        <v>0.43685300207039335</v>
+        <v>0.11670353982300885</v>
       </c>
       <c r="F41">
-        <v>0.57708333333333328</v>
+        <v>0.23817712811693897</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.041504853757646024</v>
+        <v>0.0029727857489933646</v>
       </c>
       <c r="B42">
-        <v>0.02256861892888215</v>
+        <v>0.00755085353903945</v>
       </c>
       <c r="C42">
-        <v>0.022548935660498409</v>
+        <v>0.012490711381499148</v>
       </c>
       <c r="D42">
-        <v>0.041504853757646024</v>
+        <v>0.0029727857489933646</v>
       </c>
       <c r="E42">
-        <v>0.02256861892888215</v>
+        <v>0.00755085353903945</v>
       </c>
       <c r="F42">
-        <v>0.022548935660498409</v>
+        <v>0.012490711381499148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>16.06237840420901</v>
+        <v>329.76185910582529</v>
       </c>
       <c r="B43">
-        <v>24.952656593838814</v>
+        <v>116.97968390065687</v>
       </c>
       <c r="C43">
-        <v>18.755504607143788</v>
+        <v>60.991151633801209</v>
       </c>
       <c r="D43">
-        <v>8.031189202104505</v>
+        <v>6.6229612057685605</v>
       </c>
       <c r="E43">
-        <v>19.356656401838194</v>
+        <v>15.455675205409268</v>
       </c>
       <c r="F43">
-        <v>25.592486582161712</v>
+        <v>19.06833973201234</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2.8942456809957621e-52</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>4.6925721710032342e-109</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>3.1281667983140807e-68</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2.4898434682506615e-15</v>
+        <v>3.8794895340334976e-11</v>
       </c>
       <c r="E44">
-        <v>5.6787992228575088e-72</v>
+        <v>1.0370870315246972e-52</v>
       </c>
       <c r="F44">
-        <v>1.7305030918871766e-113</v>
+        <v>2.196601057566067e-78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.5852281357797896</v>
+        <v>0.97448343315557096</v>
       </c>
       <c r="B45">
-        <v>0.51886410079073075</v>
+        <v>0.86849358154702194</v>
       </c>
       <c r="C45">
-        <v>0.3786723909495065</v>
+        <v>0.73733577467923594</v>
       </c>
       <c r="D45">
-        <v>0.25189480244645623</v>
+        <v>0.013860722532860345</v>
       </c>
       <c r="E45">
-        <v>0.39257010493151739</v>
+        <v>0.10190066119303973</v>
       </c>
       <c r="F45">
-        <v>0.53283905761617312</v>
+        <v>0.21369003091311387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.74810519755354365</v>
+        <v>0.98613927746713959</v>
       </c>
       <c r="B46">
-        <v>0.60742989506848255</v>
+        <v>0.89809933880696013</v>
       </c>
       <c r="C46">
-        <v>0.46716094238382694</v>
+        <v>0.78630996908688622</v>
       </c>
       <c r="D46">
-        <v>0.4147718642202104</v>
+        <v>0.025516566844429031</v>
       </c>
       <c r="E46">
-        <v>0.4811358992092693</v>
+        <v>0.13150641845297797</v>
       </c>
       <c r="F46">
-        <v>0.62132760905049345</v>
+        <v>0.26266422532076406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B47">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C47">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D47">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E47">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F47">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B48">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C48">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D48">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E48">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F48">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="49">
@@ -794,162 +794,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.63565891472868219</v>
+        <v>0.97847985347985345</v>
       </c>
       <c r="B51">
-        <v>0.79503105590062106</v>
+        <v>0.94524336283185839</v>
       </c>
       <c r="C51">
-        <v>0.85208333333333319</v>
+        <v>0.938950988822012</v>
       </c>
       <c r="D51">
-        <v>0.36434108527131781</v>
+        <v>0.02152014652014652</v>
       </c>
       <c r="E51">
-        <v>0.20496894409937888</v>
+        <v>0.054756637168141595</v>
       </c>
       <c r="F51">
-        <v>0.14791666666666667</v>
+        <v>0.061049011177987965</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.042371251301532804</v>
+        <v>0.0031050760324886836</v>
       </c>
       <c r="B52">
-        <v>0.018368027179650793</v>
+        <v>0.0053504583716353559</v>
       </c>
       <c r="C52">
-        <v>0.016204251396167147</v>
+        <v>0.0070205465201260264</v>
       </c>
       <c r="D52">
-        <v>0.042371251301532804</v>
+        <v>0.0031050760324886836</v>
       </c>
       <c r="E52">
-        <v>0.018368027179650793</v>
+        <v>0.0053504583716353559</v>
       </c>
       <c r="F52">
-        <v>0.016204251396167147</v>
+        <v>0.0070205465201260264</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>15.002127508698022</v>
+        <v>315.12267114941233</v>
       </c>
       <c r="B53">
-        <v>43.283421138520765</v>
+        <v>176.66586620744923</v>
       </c>
       <c r="C53">
-        <v>52.583936925026954</v>
+        <v>133.74328994620163</v>
       </c>
       <c r="D53">
-        <v>8.5987804013269145</v>
+        <v>6.9306343210212358</v>
       </c>
       <c r="E53">
-        <v>11.159007012274886</v>
+        <v>10.234008633433278</v>
       </c>
       <c r="F53">
-        <v>9.1282628891856099</v>
+        <v>8.6957633573079818</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2.185616424535986e-46</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>6.7529351107106875e-239</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3.8287612461129654e-301</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2.7663834673057207e-17</v>
+        <v>4.7042462341265544e-12</v>
       </c>
       <c r="E54">
-        <v>1.8696341099071687e-27</v>
+        <v>2.3843784770741673e-24</v>
       </c>
       <c r="F54">
-        <v>3.2915218388350911e-19</v>
+        <v>4.5674414514343128e-18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.5525203864499304</v>
+        <v>0.97239258620495361</v>
       </c>
       <c r="B55">
-        <v>0.7589903278080562</v>
+        <v>0.93475419290152817</v>
       </c>
       <c r="C55">
-        <v>0.82028824653381949</v>
+        <v>0.92518773708945379</v>
       </c>
       <c r="D55">
-        <v>0.28120255699256608</v>
+        <v>0.015432879245246738</v>
       </c>
       <c r="E55">
-        <v>0.16892821600681404</v>
+        <v>0.044267467237811338</v>
       </c>
       <c r="F55">
-        <v>0.11612157986715294</v>
+        <v>0.047285759445429801</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.71879744300743398</v>
+        <v>0.98456712075475328</v>
       </c>
       <c r="B56">
-        <v>0.83107178399318593</v>
+        <v>0.95573253276218861</v>
       </c>
       <c r="C56">
-        <v>0.8838784201328469</v>
+        <v>0.95271424055457021</v>
       </c>
       <c r="D56">
-        <v>0.44747961355006954</v>
+        <v>0.027607413795046304</v>
       </c>
       <c r="E56">
-        <v>0.24100967219194372</v>
+        <v>0.065245807098471859</v>
       </c>
       <c r="F56">
-        <v>0.1797117534661804</v>
+        <v>0.074812262910546129</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B57">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C57">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D57">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E57">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F57">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B58">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C58">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D58">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E58">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F58">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="59">
@@ -974,258 +974,258 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.77760466199703382</v>
+        <v>0.94333639481348475</v>
       </c>
       <c r="B61">
-        <v>0.5020158159287107</v>
+        <v>0.87993684811827966</v>
       </c>
       <c r="C61">
-        <v>0.62543455149501659</v>
+        <v>0.92440721996307595</v>
       </c>
       <c r="D61">
-        <v>0.60407616199589875</v>
+        <v>0.93753422356957317</v>
       </c>
       <c r="E61">
-        <v>0.86992083333333325</v>
+        <v>0.98338746234939767</v>
       </c>
       <c r="F61">
-        <v>0.2223953380029661</v>
+        <v>0.056663605186515288</v>
       </c>
       <c r="G61">
-        <v>0.49798418407128936</v>
+        <v>0.12006315188172045</v>
       </c>
       <c r="H61">
-        <v>0.37456544850498341</v>
+        <v>0.075592780036924073</v>
       </c>
       <c r="I61">
-        <v>0.39592383800410114</v>
+        <v>0.062465776430426764</v>
       </c>
       <c r="J61">
-        <v>0.13007916666666666</v>
+        <v>0.016612537650602409</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.016871444202807291</v>
+        <v>0.0047406785998530569</v>
       </c>
       <c r="B62">
-        <v>0.0337318004801892</v>
+        <v>0.010144771692405402</v>
       </c>
       <c r="C62">
-        <v>0.045367603570629085</v>
+        <v>0.010982087207003584</v>
       </c>
       <c r="D62">
-        <v>0.047877450053585853</v>
+        <v>0.0096677933310717768</v>
       </c>
       <c r="E62">
-        <v>0.071504757094767571</v>
+        <v>0.0097464501909279265</v>
       </c>
       <c r="F62">
-        <v>0.016871444202807291</v>
+        <v>0.0047406785998530569</v>
       </c>
       <c r="G62">
-        <v>0.0337318004801892</v>
+        <v>0.010144771692405402</v>
       </c>
       <c r="H62">
-        <v>0.045367603570629085</v>
+        <v>0.010982087207003584</v>
       </c>
       <c r="I62">
-        <v>0.047877450053585853</v>
+        <v>0.0096677933310717768</v>
       </c>
       <c r="J62">
-        <v>0.071504757094767571</v>
+        <v>0.0097464501909279265</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>46.089988067983285</v>
+        <v>198.98762907966901</v>
       </c>
       <c r="B63">
-        <v>14.882568045057253</v>
+        <v>86.737964618466435</v>
       </c>
       <c r="C63">
-        <v>13.785928774512611</v>
+        <v>84.174092095494885</v>
       </c>
       <c r="D63">
-        <v>12.617133145558064</v>
+        <v>96.974996409613738</v>
       </c>
       <c r="E63">
-        <v>12.165915509375118</v>
+        <v>100.89698742468745</v>
       </c>
       <c r="F63">
-        <v>13.181760573049287</v>
+        <v>11.952635892311207</v>
       </c>
       <c r="G63">
-        <v>14.763047835639759</v>
+        <v>11.834978205729593</v>
       </c>
       <c r="H63">
-        <v>8.2562317386205617</v>
+        <v>6.883279891341278</v>
       </c>
       <c r="I63">
-        <v>8.2695264171540366</v>
+        <v>6.4612238068500139</v>
       </c>
       <c r="J63">
-        <v>1.8191680099586736</v>
+        <v>1.704470584178996</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>3.9825132554665405e-258</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>9.6891381547773739e-46</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>5.703663815489706e-40</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>3.6666188503921879e-34</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>5.0820690850796006e-32</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>6.3717549015667054e-37</v>
+        <v>1.6861675111420993e-32</v>
       </c>
       <c r="G64">
-        <v>4.2599170904682283e-45</v>
+        <v>6.6455707792892532e-32</v>
       </c>
       <c r="H64">
-        <v>4.314883228092202e-16</v>
+        <v>6.5474242683140724e-12</v>
       </c>
       <c r="I64">
-        <v>3.8854107794769893e-16</v>
+        <v>1.134261053348748e-10</v>
       </c>
       <c r="J64">
-        <v>0.069160315251617116</v>
+        <v>0.088353501285320948</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.74450044633494561</v>
+        <v>0.93404265211612025</v>
       </c>
       <c r="B65">
-        <v>0.43582914071919265</v>
+        <v>0.86004878866711898</v>
       </c>
       <c r="C65">
-        <v>0.53641674634326031</v>
+        <v>0.90287766662337621</v>
       </c>
       <c r="D65">
-        <v>0.51013367474510152</v>
+        <v>0.91858124420643672</v>
       </c>
       <c r="E65">
-        <v>0.72961814962256089</v>
+        <v>0.96428028214739647</v>
       </c>
       <c r="F65">
-        <v>0.18929112234087792</v>
+        <v>0.047369862489150788</v>
       </c>
       <c r="G65">
-        <v>0.43179750886177126</v>
+        <v>0.10017509243055978</v>
       </c>
       <c r="H65">
-        <v>0.28554764335322719</v>
+        <v>0.054063226697224298</v>
       </c>
       <c r="I65">
-        <v>0.3019813507533039</v>
+        <v>0.043512797067290332</v>
       </c>
       <c r="J65">
-        <v>-0.010223517044105679</v>
+        <v>-0.0024946425513988207</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.81070887765912203</v>
+        <v>0.95263013751084924</v>
       </c>
       <c r="B66">
-        <v>0.56820249113822874</v>
+        <v>0.89982490756944034</v>
       </c>
       <c r="C66">
-        <v>0.71445235664677287</v>
+        <v>0.9459367733027757</v>
       </c>
       <c r="D66">
-        <v>0.69801864924669599</v>
+        <v>0.95648720293270961</v>
       </c>
       <c r="E66">
-        <v>1.0102235170441056</v>
+        <v>1.002494642551399</v>
       </c>
       <c r="F66">
-        <v>0.25549955366505428</v>
+        <v>0.065957347883879788</v>
       </c>
       <c r="G66">
-        <v>0.56417085928080746</v>
+        <v>0.13995121133288113</v>
       </c>
       <c r="H66">
-        <v>0.46358325365673964</v>
+        <v>0.097122333376623848</v>
       </c>
       <c r="I66">
-        <v>0.48986632525489837</v>
+        <v>0.081418755793563197</v>
       </c>
       <c r="J66">
-        <v>0.270381850377439</v>
+        <v>0.035719717852603639</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="G67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="H67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="I67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="J67">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="G68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="H68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="I68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="J68">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="69">
@@ -1262,258 +1262,258 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.42405329229997973</v>
+        <v>0.85859673403917536</v>
       </c>
       <c r="B71">
-        <v>0.67594627587487244</v>
+        <v>0.92337302755376349</v>
       </c>
       <c r="C71">
-        <v>0.57349656699889262</v>
+        <v>0.91494970961328481</v>
       </c>
       <c r="D71">
-        <v>0.56840528024606973</v>
+        <v>0.92633509929091107</v>
       </c>
       <c r="E71">
-        <v>0.40590416666666662</v>
+        <v>0.92333842477051054</v>
       </c>
       <c r="F71">
-        <v>0.57594670770002021</v>
+        <v>0.1414032659608247</v>
       </c>
       <c r="G71">
-        <v>0.32405372412512762</v>
+        <v>0.076626972446236563</v>
       </c>
       <c r="H71">
-        <v>0.42650343300110743</v>
+        <v>0.085050290386715244</v>
       </c>
       <c r="I71">
-        <v>0.43159471975393027</v>
+        <v>0.073664900709088932</v>
       </c>
       <c r="J71">
-        <v>0.59409583333333327</v>
+        <v>0.076661575229489395</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.019808907317498809</v>
+        <v>0.0068681954422235162</v>
       </c>
       <c r="B72">
-        <v>0.031872739827182722</v>
+        <v>0.0084650539275931535</v>
       </c>
       <c r="C72">
-        <v>0.047094944861541518</v>
+        <v>0.011687583325625537</v>
       </c>
       <c r="D72">
-        <v>0.048424709936680958</v>
+        <v>0.010811587957612379</v>
       </c>
       <c r="E72">
-        <v>0.10380473936990516</v>
+        <v>0.019904767393427683</v>
       </c>
       <c r="F72">
-        <v>0.019808907317498809</v>
+        <v>0.0068681954422235162</v>
       </c>
       <c r="G72">
-        <v>0.031872739827182722</v>
+        <v>0.0084650539275931535</v>
       </c>
       <c r="H72">
-        <v>0.047094944861541518</v>
+        <v>0.011687583325625537</v>
       </c>
       <c r="I72">
-        <v>0.048424709936680958</v>
+        <v>0.010811587957612379</v>
       </c>
       <c r="J72">
-        <v>0.10380473936990516</v>
+        <v>0.019904767393427683</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>21.407202603516609</v>
+        <v>125.01052733019088</v>
       </c>
       <c r="B73">
-        <v>21.207661454268532</v>
+        <v>109.08058418197268</v>
       </c>
       <c r="C73">
-        <v>12.177454898502685</v>
+        <v>78.283909010275693</v>
       </c>
       <c r="D73">
-        <v>11.737918120507143</v>
+        <v>85.679837496829833</v>
       </c>
       <c r="E73">
-        <v>3.9102662280210443</v>
+        <v>46.387802807250381</v>
       </c>
       <c r="F73">
-        <v>29.075137687743126</v>
+        <v>20.588124952228597</v>
       </c>
       <c r="G73">
-        <v>10.16711226842061</v>
+        <v>9.052154079781948</v>
       </c>
       <c r="H73">
-        <v>9.0562465728545085</v>
+        <v>7.2769783125514724</v>
       </c>
       <c r="I73">
-        <v>8.9126960247830844</v>
+        <v>6.813513518818656</v>
       </c>
       <c r="J73">
-        <v>5.7232052885012328</v>
+        <v>3.8514177892278276</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>3.8880794342872309e-85</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>7.8663889996636013e-84</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>4.4873481770896536e-32</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>4.8248584803894673e-30</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>9.789503727438033e-05</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>5.0591002593832615e-138</v>
+        <v>1.4213926828700115e-90</v>
       </c>
       <c r="G74">
-        <v>2.9246047619234985e-23</v>
+        <v>1.9502760835960262e-19</v>
       </c>
       <c r="H74">
-        <v>6.0928843728072726e-19</v>
+        <v>3.9276599573749323e-13</v>
       </c>
       <c r="I74">
-        <v>2.0539368683764509e-18</v>
+        <v>1.0614813384394308e-11</v>
       </c>
       <c r="J74">
-        <v>1.3504469078149217e-08</v>
+        <v>0.0001188611531130833</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.38518534881001559</v>
+        <v>0.84513215509952411</v>
       </c>
       <c r="B75">
-        <v>0.61340734676499109</v>
+        <v>0.90677792804104729</v>
       </c>
       <c r="C75">
-        <v>0.48108946820226395</v>
+        <v>0.89203708436470996</v>
       </c>
       <c r="D75">
-        <v>0.47338898988894595</v>
+        <v>0.9051397968649908</v>
       </c>
       <c r="E75">
-        <v>0.20222424231991709</v>
+        <v>0.8843166301668558</v>
       </c>
       <c r="F75">
-        <v>0.53707876421005607</v>
+        <v>0.12793868702117342</v>
       </c>
       <c r="G75">
-        <v>0.26151479501524627</v>
+        <v>0.060031872933520372</v>
       </c>
       <c r="H75">
-        <v>0.33409633420447876</v>
+        <v>0.062137665138140438</v>
       </c>
       <c r="I75">
-        <v>0.33657842939680649</v>
+        <v>0.05246959828316862</v>
       </c>
       <c r="J75">
-        <v>0.39041590898658374</v>
+        <v>0.03763978062583466</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.46292123578994387</v>
+        <v>0.87206131297882661</v>
       </c>
       <c r="B76">
-        <v>0.73848520498475378</v>
+        <v>0.9399681270664797</v>
       </c>
       <c r="C76">
-        <v>0.66590366579552129</v>
+        <v>0.93786233486185966</v>
       </c>
       <c r="D76">
-        <v>0.66342157060319351</v>
+        <v>0.94753040171683134</v>
       </c>
       <c r="E76">
-        <v>0.60958409101341615</v>
+        <v>0.96236021937416527</v>
       </c>
       <c r="F76">
-        <v>0.61481465118998435</v>
+        <v>0.15486784490047598</v>
       </c>
       <c r="G76">
-        <v>0.38659265323500897</v>
+        <v>0.093222071958952754</v>
       </c>
       <c r="H76">
-        <v>0.51891053179773616</v>
+        <v>0.10796291563529005</v>
       </c>
       <c r="I76">
-        <v>0.52661101011105405</v>
+        <v>0.094860203135009244</v>
       </c>
       <c r="J76">
-        <v>0.7977757576800828</v>
+        <v>0.11568336983314413</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="G77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="H77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="I77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="J77">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="G78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="H78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="I78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="J78">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="79">
@@ -1550,258 +1550,258 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.79834204570298628</v>
+        <v>0.94684321009383243</v>
       </c>
       <c r="B81">
-        <v>0.8220379081964172</v>
+        <v>0.95811393145161294</v>
       </c>
       <c r="C81">
-        <v>0.8010688815060909</v>
+        <v>0.96073326721009633</v>
       </c>
       <c r="D81">
-        <v>0.82751855775803151</v>
+        <v>0.97245382783039336</v>
       </c>
       <c r="E81">
-        <v>0.72417500000000001</v>
+        <v>0.96406037507171549</v>
       </c>
       <c r="F81">
-        <v>0.20165795429701375</v>
+        <v>0.053156789906167547</v>
       </c>
       <c r="G81">
-        <v>0.17796209180358305</v>
+        <v>0.041886068548387098</v>
       </c>
       <c r="H81">
-        <v>0.19893111849390918</v>
+        <v>0.039266732789903711</v>
       </c>
       <c r="I81">
-        <v>0.17248144224196854</v>
+        <v>0.027546172169606569</v>
       </c>
       <c r="J81">
-        <v>0.27582499999999999</v>
+        <v>0.035939624928284564</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.016087031486775979</v>
+        <v>0.0046660087301337886</v>
       </c>
       <c r="B82">
-        <v>0.025111964481755573</v>
+        <v>0.0062931859547450996</v>
       </c>
       <c r="C82">
-        <v>0.037767525988683631</v>
+        <v>0.0082363503304174711</v>
       </c>
       <c r="D82">
-        <v>0.036807538600158708</v>
+        <v>0.0065789464583236182</v>
       </c>
       <c r="E82">
-        <v>0.092982929800985534</v>
+        <v>0.013834371865664212</v>
       </c>
       <c r="F82">
-        <v>0.016087031486775979</v>
+        <v>0.0046660087301337886</v>
       </c>
       <c r="G82">
-        <v>0.025111964481755573</v>
+        <v>0.0062931859547450996</v>
       </c>
       <c r="H82">
-        <v>0.037767525988683631</v>
+        <v>0.0082363503304174711</v>
       </c>
       <c r="I82">
-        <v>0.036807538600158708</v>
+        <v>0.0065789464583236182</v>
       </c>
       <c r="J82">
-        <v>0.092982929800985534</v>
+        <v>0.013834371865664212</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>49.626436447224421</v>
+        <v>202.92358305696604</v>
       </c>
       <c r="B83">
-        <v>32.734910436562892</v>
+        <v>152.24624511996015</v>
       </c>
       <c r="C83">
-        <v>21.210520428214359</v>
+        <v>116.64550786068861</v>
       </c>
       <c r="D83">
-        <v>22.482311755409349</v>
+        <v>147.81300227790339</v>
       </c>
       <c r="E83">
-        <v>7.7882574957572954</v>
+        <v>69.6858798095803</v>
       </c>
       <c r="F83">
-        <v>12.535436041309586</v>
+        <v>11.392346860149011</v>
       </c>
       <c r="G83">
-        <v>7.0867451223450342</v>
+        <v>6.6557811654690981</v>
       </c>
       <c r="H83">
-        <v>5.2672531039897965</v>
+        <v>4.7674918155057906</v>
       </c>
       <c r="I83">
-        <v>4.686035763370084</v>
+        <v>4.1870187489906421</v>
       </c>
       <c r="J83">
-        <v>2.9664047001998908</v>
+        <v>2.5978501429099063</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>8.0476192203839555e-282</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>3.3397325660852361e-164</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>7.5352578420357333e-84</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>2.9597842613233683e-92</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>1.5759805081950579e-14</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>9.0431676165930866e-34</v>
+        <v>1.0327000311116686e-29</v>
       </c>
       <c r="G84">
-        <v>2.4625092244799337e-12</v>
+        <v>3.1110158152488152e-11</v>
       </c>
       <c r="H84">
-        <v>1.6681536201019154e-07</v>
+        <v>1.9166925574254958e-06</v>
       </c>
       <c r="I84">
-        <v>3.13761639454107e-06</v>
+        <v>2.8735781801920364e-05</v>
       </c>
       <c r="J84">
-        <v>0.0030787949034032404</v>
+        <v>0.0094076430732689589</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.76677696133324258</v>
+        <v>0.93769585204199912</v>
       </c>
       <c r="B85">
-        <v>0.77276459893434402</v>
+        <v>0.94577661522606626</v>
       </c>
       <c r="C85">
-        <v>0.72696352867892344</v>
+        <v>0.94458652384330799</v>
       </c>
       <c r="D85">
-        <v>0.75529683914501899</v>
+        <v>0.95955629969902156</v>
       </c>
       <c r="E85">
-        <v>0.5417290324809626</v>
+        <v>0.93693913287167963</v>
       </c>
       <c r="F85">
-        <v>0.17009286992727007</v>
+        <v>0.044009431854334202</v>
       </c>
       <c r="G85">
-        <v>0.12868878254150989</v>
+        <v>0.029548752322840405</v>
       </c>
       <c r="H85">
-        <v>0.12482576566674175</v>
+        <v>0.023119989423115314</v>
       </c>
       <c r="I85">
-        <v>0.10025972362895605</v>
+        <v>0.014648644038234753</v>
       </c>
       <c r="J85">
-        <v>0.093379032480962604</v>
+        <v>0.008818382728248704</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.82990713007272998</v>
+        <v>0.95599056814566574</v>
       </c>
       <c r="B86">
-        <v>0.87131121745849038</v>
+        <v>0.97045124767715962</v>
       </c>
       <c r="C86">
-        <v>0.87517423433325836</v>
+        <v>0.97688001057688467</v>
       </c>
       <c r="D86">
-        <v>0.89974027637104403</v>
+        <v>0.98535135596176515</v>
       </c>
       <c r="E86">
-        <v>0.90662096751903742</v>
+        <v>0.99118161727175136</v>
       </c>
       <c r="F86">
-        <v>0.23322303866675742</v>
+        <v>0.062304147958000891</v>
       </c>
       <c r="G86">
-        <v>0.22723540106565621</v>
+        <v>0.054223384773933792</v>
       </c>
       <c r="H86">
-        <v>0.27303647132107661</v>
+        <v>0.055413476156692107</v>
       </c>
       <c r="I86">
-        <v>0.24470316085498103</v>
+        <v>0.040443700300978387</v>
       </c>
       <c r="J86">
-        <v>0.4582709675190374</v>
+        <v>0.06306086712832043</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="G87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="H87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="I87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="J87">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="G88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="H88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="I88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="J88">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="89">
@@ -1838,162 +1838,162 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.61395539112050734</v>
+        <v>0.91397041040389682</v>
       </c>
       <c r="B91">
-        <v>0.67887223812637187</v>
+        <v>0.92437458322456278</v>
       </c>
       <c r="C91">
-        <v>0.84590856187290964</v>
+        <v>0.96922924236217578</v>
       </c>
       <c r="D91">
-        <v>0.3860446088794926</v>
+        <v>0.086029589596103143</v>
       </c>
       <c r="E91">
-        <v>0.32112776187362818</v>
+        <v>0.075625416775437229</v>
       </c>
       <c r="F91">
-        <v>0.15409143812709031</v>
+        <v>0.030770757637824119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.025363099944911947</v>
+        <v>0.0069514963834157876</v>
       </c>
       <c r="B92">
-        <v>0.019940053213346524</v>
+        <v>0.0053871786032961885</v>
       </c>
       <c r="C92">
-        <v>0.025951639967013839</v>
+        <v>0.0055180894647032788</v>
       </c>
       <c r="D92">
-        <v>0.025363099944911947</v>
+        <v>0.0069514963834157876</v>
       </c>
       <c r="E92">
-        <v>0.019940053213346524</v>
+        <v>0.0053871786032961885</v>
       </c>
       <c r="F92">
-        <v>0.025951639967013839</v>
+        <v>0.0055180894647032788</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>24.206638480864086</v>
+        <v>131.47822569315574</v>
       </c>
       <c r="B93">
-        <v>34.045658297039083</v>
+        <v>171.58788510538275</v>
       </c>
       <c r="C93">
-        <v>32.59557249361167</v>
+        <v>175.6458007000243</v>
       </c>
       <c r="D93">
-        <v>15.220718670744994</v>
+        <v>12.375693642212672</v>
       </c>
       <c r="E93">
-        <v>16.104659222207438</v>
+        <v>14.038037782739412</v>
       </c>
       <c r="F93">
-        <v>5.9376377879374935</v>
+        <v>5.5763426516823857</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>6.3333571350828483e-104</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>1.3301547698755737e-173</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>3.3348003142846146e-163</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1.4078089331211016e-47</v>
+        <v>1.0961902411180608e-34</v>
       </c>
       <c r="E94">
-        <v>1.6671612541118844e-52</v>
+        <v>5.8380395623664961e-44</v>
       </c>
       <c r="F94">
-        <v>3.8840384377971141e-09</v>
+        <v>2.5814473714822073e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.56418931772794301</v>
+        <v>0.90034252625433042</v>
       </c>
       <c r="B95">
-        <v>0.6397469674054278</v>
+        <v>0.91381342605070714</v>
       </c>
       <c r="C95">
-        <v>0.79498768776600048</v>
+        <v>0.95841144432212733</v>
       </c>
       <c r="D95">
-        <v>0.33627853548692827</v>
+        <v>0.072401705446536721</v>
       </c>
       <c r="E95">
-        <v>0.28200249115268411</v>
+        <v>0.065064259601581548</v>
       </c>
       <c r="F95">
-        <v>0.10317056402018113</v>
+        <v>0.019952959597775662</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.66372146451307168</v>
+        <v>0.92759829455346321</v>
       </c>
       <c r="B96">
-        <v>0.71799750884731595</v>
+        <v>0.93493574039841842</v>
       </c>
       <c r="C96">
-        <v>0.89682943597981879</v>
+        <v>0.98004704040222423</v>
       </c>
       <c r="D96">
-        <v>0.43581068227205694</v>
+        <v>0.099657473745669564</v>
       </c>
       <c r="E96">
-        <v>0.36025303259457225</v>
+        <v>0.086186573949292911</v>
       </c>
       <c r="F96">
-        <v>0.20501231223399949</v>
+        <v>0.041588555677872577</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B97">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C97">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D97">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E97">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F97">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B98">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C98">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D98">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E98">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F98">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="99">
@@ -2018,162 +2018,162 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.59748843556623898</v>
+        <v>0.91309700136995708</v>
       </c>
       <c r="B101">
-        <v>0.51169596646896742</v>
+        <v>0.88577938399725475</v>
       </c>
       <c r="C101">
-        <v>0.33606991081382387</v>
+        <v>0.86837149913528633</v>
       </c>
       <c r="D101">
-        <v>0.40251156443376102</v>
+        <v>0.086902998630043082</v>
       </c>
       <c r="E101">
-        <v>0.48830403353103258</v>
+        <v>0.11422061600274522</v>
       </c>
       <c r="F101">
-        <v>0.66393008918617613</v>
+        <v>0.13162850086471378</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.025473175493215677</v>
+        <v>0.0067724061303946377</v>
       </c>
       <c r="B102">
-        <v>0.021175162240617738</v>
+        <v>0.0063705347980414556</v>
       </c>
       <c r="C102">
-        <v>0.033504644871836381</v>
+        <v>0.010480807508260529</v>
       </c>
       <c r="D102">
-        <v>0.025473175493215677</v>
+        <v>0.0067724061303946377</v>
       </c>
       <c r="E102">
-        <v>0.021175162240617738</v>
+        <v>0.0063705347980414556</v>
       </c>
       <c r="F102">
-        <v>0.033504644871836381</v>
+        <v>0.010480807508260529</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>23.455592952098545</v>
+        <v>134.8260845243712</v>
       </c>
       <c r="B103">
-        <v>24.164913621650712</v>
+        <v>139.04317487906619</v>
       </c>
       <c r="C103">
-        <v>10.030546871915075</v>
+        <v>82.853491818342491</v>
       </c>
       <c r="D103">
-        <v>15.801389369023219</v>
+        <v>12.831923685146615</v>
       </c>
       <c r="E103">
-        <v>23.060226315261865</v>
+        <v>17.929517634510209</v>
       </c>
       <c r="F103">
-        <v>19.816061078273602</v>
+        <v>12.55900375624395</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>8.301903932346914e-99</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>1.2224666328182117e-103</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>1.0447047797257663e-22</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>8.545029838409067e-51</v>
+        <v>4.0017587471032963e-37</v>
       </c>
       <c r="E104">
-        <v>3.9104287566261084e-96</v>
+        <v>8.8230841323968994e-70</v>
       </c>
       <c r="F104">
-        <v>7.1950050706650381e-75</v>
+        <v>1.1757180207873468e-35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.54750637801450219</v>
+        <v>0.89982021014857105</v>
       </c>
       <c r="B105">
-        <v>0.47014723305487849</v>
+        <v>0.87329043120061522</v>
       </c>
       <c r="C105">
-        <v>0.27032894778859606</v>
+        <v>0.8478246668219972</v>
       </c>
       <c r="D105">
-        <v>0.35252950688202417</v>
+        <v>0.073626207408657038</v>
       </c>
       <c r="E105">
-        <v>0.44675530011694364</v>
+        <v>0.10173166320610565</v>
       </c>
       <c r="F105">
-        <v>0.59818912616094833</v>
+        <v>0.11108166855142459</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.64747049311797578</v>
+        <v>0.92637379259134311</v>
       </c>
       <c r="B106">
-        <v>0.55324469988305636</v>
+        <v>0.89826833679389428</v>
       </c>
       <c r="C106">
-        <v>0.40181087383905167</v>
+        <v>0.88891833144857546</v>
       </c>
       <c r="D106">
-        <v>0.45249362198549786</v>
+        <v>0.10017978985142913</v>
       </c>
       <c r="E106">
-        <v>0.52985276694512151</v>
+        <v>0.12670956879938478</v>
       </c>
       <c r="F106">
-        <v>0.72967105221140394</v>
+        <v>0.15217533317800297</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B107">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C107">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D107">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E107">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F107">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B108">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C108">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D108">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E108">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F108">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="109">
@@ -2198,162 +2198,162 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.78855617331325356</v>
+        <v>0.95352809287468943</v>
       </c>
       <c r="B111">
-        <v>0.80943179540466059</v>
+        <v>0.95495564869180583</v>
       </c>
       <c r="C111">
-        <v>0.81802152731326638</v>
+        <v>0.9642521520843278</v>
       </c>
       <c r="D111">
-        <v>0.21144382668674644</v>
+        <v>0.046471907125310644</v>
       </c>
       <c r="E111">
-        <v>0.1905682045953393</v>
+        <v>0.045044351308194008</v>
       </c>
       <c r="F111">
-        <v>0.18197847268673356</v>
+        <v>0.035747847915672024</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.021536699047143414</v>
+        <v>0.0053158722579089044</v>
       </c>
       <c r="B112">
-        <v>0.016489896259107562</v>
+        <v>0.0042267874852689657</v>
       </c>
       <c r="C112">
-        <v>0.027474999395857912</v>
+        <v>0.0059332372230231122</v>
       </c>
       <c r="D112">
-        <v>0.021536699047143414</v>
+        <v>0.0053158722579089044</v>
       </c>
       <c r="E112">
-        <v>0.016489896259107562</v>
+        <v>0.0042267874852689657</v>
       </c>
       <c r="F112">
-        <v>0.027474999395857912</v>
+        <v>0.0059332372230231122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>36.614532783650802</v>
+        <v>179.37377849063986</v>
       </c>
       <c r="B113">
-        <v>49.086530484241344</v>
+        <v>225.92942087104683</v>
       </c>
       <c r="C113">
-        <v>29.773304651522214</v>
+        <v>162.51704016530465</v>
       </c>
       <c r="D113">
-        <v>9.8178382037052216</v>
+        <v>8.7421038111234104</v>
       </c>
       <c r="E113">
-        <v>11.556664857129483</v>
+        <v>10.656876283745236</v>
       </c>
       <c r="F113">
-        <v>6.6234204436113053</v>
+        <v>6.0250157834507965</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>5.590838808830089e-192</v>
+        <v>0</v>
       </c>
       <c r="B114">
-        <v>3.0366763636358583e-278</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>5.3484708205683453e-143</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>7.3804987475364098e-22</v>
+        <v>3.0516508246165418e-18</v>
       </c>
       <c r="E114">
-        <v>3.196508792322162e-29</v>
+        <v>3.0336555930550343e-26</v>
       </c>
       <c r="F114">
-        <v>5.503642371799888e-11</v>
+        <v>1.8083143184846607e-09</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.74629805235242352</v>
+        <v>0.94310672641069948</v>
       </c>
       <c r="B115">
-        <v>0.77707623203705478</v>
+        <v>0.94666935075004122</v>
       </c>
       <c r="C115">
-        <v>0.76411160150117252</v>
+        <v>0.95262048818816925</v>
       </c>
       <c r="D115">
-        <v>0.16918570572591646</v>
+        <v>0.036050540661320712</v>
       </c>
       <c r="E115">
-        <v>0.15821264122773343</v>
+        <v>0.036758053366429358</v>
       </c>
       <c r="F115">
-        <v>0.12806854687463967</v>
+        <v>0.024116184019513473</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.8308142942740836</v>
+        <v>0.96394945933867937</v>
       </c>
       <c r="B116">
-        <v>0.8417873587722664</v>
+        <v>0.96324194663357043</v>
       </c>
       <c r="C116">
-        <v>0.87193145312536025</v>
+        <v>0.97588381598048635</v>
       </c>
       <c r="D116">
-        <v>0.25370194764757642</v>
+        <v>0.056893273589300575</v>
       </c>
       <c r="E116">
-        <v>0.22292376796294516</v>
+        <v>0.053330649249958659</v>
       </c>
       <c r="F116">
-        <v>0.23588839849882745</v>
+        <v>0.047379511811830574</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B117">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C117">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D117">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E117">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F117">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B118">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C118">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D118">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E118">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F118">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="119">
@@ -2378,306 +2378,306 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.67741251282051285</v>
+        <v>0.9299860448335634</v>
       </c>
       <c r="B121">
-        <v>0.68711942552076699</v>
+        <v>0.93993914128345213</v>
       </c>
       <c r="C121">
-        <v>0.76085737273029608</v>
+        <v>0.95369737235974195</v>
       </c>
       <c r="D121">
-        <v>0.63392173005320696</v>
+        <v>0.90960439578596719</v>
       </c>
       <c r="E121">
-        <v>0.66403487525731464</v>
+        <v>0.90323089368720044</v>
       </c>
       <c r="F121">
-        <v>0.6121729917822083</v>
+        <v>0.84865242271422048</v>
       </c>
       <c r="G121">
-        <v>0.32258748717948715</v>
+        <v>0.070013955166436589</v>
       </c>
       <c r="H121">
-        <v>0.31288057447923301</v>
+        <v>0.060060858716547941</v>
       </c>
       <c r="I121">
-        <v>0.23914262726970392</v>
+        <v>0.046302627640257984</v>
       </c>
       <c r="J121">
-        <v>0.3660782699467931</v>
+        <v>0.090395604214032754</v>
       </c>
       <c r="K121">
-        <v>0.33596512474268536</v>
+        <v>0.096769106312799474</v>
       </c>
       <c r="L121">
-        <v>0.38782700821779165</v>
+        <v>0.15134757728577958</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.11618107597555176</v>
+        <v>0.027046449385478004</v>
       </c>
       <c r="B122">
-        <v>0.030457292871219545</v>
+        <v>0.0068552026736177843</v>
       </c>
       <c r="C122">
-        <v>0.024290144822598267</v>
+        <v>0.0051265794558511754</v>
       </c>
       <c r="D122">
-        <v>0.0302989240993395</v>
+        <v>0.0088026610361696764</v>
       </c>
       <c r="E122">
-        <v>0.04259485250972761</v>
+        <v>0.01426863277681047</v>
       </c>
       <c r="F122">
-        <v>0.05687224061224385</v>
+        <v>0.022949466920852687</v>
       </c>
       <c r="G122">
-        <v>0.11618107597555176</v>
+        <v>0.027046449385478004</v>
       </c>
       <c r="H122">
-        <v>0.030457292871219545</v>
+        <v>0.0068552026736177964</v>
       </c>
       <c r="I122">
-        <v>0.02429014482259827</v>
+        <v>0.0051265794558511685</v>
       </c>
       <c r="J122">
-        <v>0.030298924099339496</v>
+        <v>0.0088026610361696712</v>
       </c>
       <c r="K122">
-        <v>0.04259485250972761</v>
+        <v>0.014268632776810475</v>
       </c>
       <c r="L122">
-        <v>0.056872240612243843</v>
+        <v>0.022949466920852684</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>5.8306613803702616</v>
+        <v>34.384773822951374</v>
       </c>
       <c r="B123">
-        <v>22.5600951609871</v>
+        <v>137.11325339815315</v>
       </c>
       <c r="C123">
-        <v>31.323706724977392</v>
+        <v>186.02996024400792</v>
       </c>
       <c r="D123">
-        <v>20.922252155713547</v>
+        <v>103.33288900350134</v>
       </c>
       <c r="E123">
-        <v>15.589556862667044</v>
+        <v>63.301852939627167</v>
       </c>
       <c r="F123">
-        <v>10.764003408200791</v>
+        <v>36.979178019298793</v>
       </c>
       <c r="G123">
-        <v>2.7765923535375929</v>
+        <v>2.5886560623380399</v>
       </c>
       <c r="H123">
-        <v>10.272763761446699</v>
+        <v>8.7613541971110163</v>
       </c>
       <c r="I123">
-        <v>9.845253250495988</v>
+        <v>9.0318755495754495</v>
       </c>
       <c r="J123">
-        <v>12.082220106118337</v>
+        <v>10.26912246678612</v>
       </c>
       <c r="K123">
-        <v>7.8874583417317679</v>
+        <v>6.7819466536464237</v>
       </c>
       <c r="L123">
-        <v>6.8192672566218118</v>
+        <v>6.5948188604006264</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>7.3409600944248174e-09</v>
+        <v>2.1514619243705951e-227</v>
       </c>
       <c r="B124">
-        <v>4.5679893606991608e-92</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>3.8778412789231423e-117</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>6.1620536506171885e-78</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>5.7240750177187682e-49</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>6.3797169241538103e-25</v>
+        <v>4.8795799618531501e-258</v>
       </c>
       <c r="G124">
-        <v>0.0055908440726154763</v>
+        <v>0.0096698026674526469</v>
       </c>
       <c r="H124">
-        <v>1.203436491021086e-23</v>
+        <v>3.2669434936961334e-18</v>
       </c>
       <c r="I124">
-        <v>6.4355065077601151e-21</v>
+        <v>6.3695249864992084e-19</v>
       </c>
       <c r="J124">
-        <v>5.3100872874665245e-31</v>
+        <v>3.3689853764716456e-24</v>
       </c>
       <c r="K124">
-        <v>8.4349282698051288e-15</v>
+        <v>1.6078462009517742e-11</v>
       </c>
       <c r="L124">
-        <v>2.1458095707926589e-11</v>
+        <v>4.8087086659481011e-11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.44943917067837824</v>
+        <v>0.87696002951918917</v>
       </c>
       <c r="B125">
-        <v>0.62735472397492931</v>
+        <v>0.92649741799279106</v>
       </c>
       <c r="C125">
-        <v>0.71312665232198391</v>
+        <v>0.94363955814003575</v>
       </c>
       <c r="D125">
-        <v>0.57444738176680965</v>
+        <v>0.89234203018063318</v>
       </c>
       <c r="E125">
-        <v>0.58044416109111008</v>
+        <v>0.8752458680441495</v>
       </c>
       <c r="F125">
-        <v>0.50049117880573124</v>
+        <v>0.80365879541518714</v>
       </c>
       <c r="G125">
-        <v>0.094614145037352576</v>
+        <v>0.016987939852062373</v>
       </c>
       <c r="H125">
-        <v>0.25311587293339533</v>
+        <v>0.046619135425886832</v>
       </c>
       <c r="I125">
-        <v>0.1914119068613917</v>
+        <v>0.03624481342055183</v>
       </c>
       <c r="J125">
-        <v>0.3066039216603958</v>
+        <v>0.073133238608698803</v>
       </c>
       <c r="K125">
-        <v>0.25237441057648086</v>
+        <v>0.068784080669748573</v>
       </c>
       <c r="L125">
-        <v>0.27614519524131464</v>
+        <v>0.1063539499867463</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.90538585496264745</v>
+        <v>0.98301206014793763</v>
       </c>
       <c r="B126">
-        <v>0.74688412706660467</v>
+        <v>0.9533808645741132</v>
       </c>
       <c r="C126">
-        <v>0.80858809313860824</v>
+        <v>0.96375518657944814</v>
       </c>
       <c r="D126">
-        <v>0.69339607833960426</v>
+        <v>0.9268667613913012</v>
       </c>
       <c r="E126">
-        <v>0.7476255894235192</v>
+        <v>0.93121591933025138</v>
       </c>
       <c r="F126">
-        <v>0.72385480475868536</v>
+        <v>0.89364605001325381</v>
       </c>
       <c r="G126">
-        <v>0.55056082932162176</v>
+        <v>0.12303997048081081</v>
       </c>
       <c r="H126">
-        <v>0.37264527602507069</v>
+        <v>0.07350258200720905</v>
       </c>
       <c r="I126">
-        <v>0.28687334767801614</v>
+        <v>0.056360441859964139</v>
       </c>
       <c r="J126">
-        <v>0.42555261823319041</v>
+        <v>0.10765796981936671</v>
       </c>
       <c r="K126">
-        <v>0.41955583890888987</v>
+        <v>0.12475413195585038</v>
       </c>
       <c r="L126">
-        <v>0.49950882119426865</v>
+        <v>0.19634120458481286</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1050.6738938016035</v>
+        <v>4024.2059519201021</v>
       </c>
       <c r="B127">
-        <v>1040.7338066976433</v>
+        <v>2818.1927551869808</v>
       </c>
       <c r="C127">
-        <v>470.00499971809677</v>
+        <v>1229.2503719178251</v>
       </c>
       <c r="D127">
-        <v>803.85430697745107</v>
+        <v>2206.9872014598977</v>
       </c>
       <c r="E127">
-        <v>951.434772190084</v>
+        <v>1780.9123787390222</v>
       </c>
       <c r="F127">
-        <v>630.84620966446869</v>
+        <v>4034.3545309900687</v>
       </c>
       <c r="G127">
-        <v>1050.673893801604</v>
+        <v>4024.2059519201075</v>
       </c>
       <c r="H127">
-        <v>1040.7338066976431</v>
+        <v>2818.1927551867511</v>
       </c>
       <c r="I127">
-        <v>470.00499971809569</v>
+        <v>1229.250371917889</v>
       </c>
       <c r="J127">
-        <v>803.85430697745323</v>
+        <v>2206.9872014599482</v>
       </c>
       <c r="K127">
-        <v>951.43477219008446</v>
+        <v>1780.912378738996</v>
       </c>
       <c r="L127">
-        <v>630.84620966446937</v>
+        <v>4034.3545309901024</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9622244003843408</v>
+        <v>1.9605536593222979</v>
       </c>
       <c r="B128">
-        <v>1.9622460143958498</v>
+        <v>1.9608061104293091</v>
       </c>
       <c r="C128">
-        <v>1.9650241180903161</v>
+        <v>1.9618957057666917</v>
       </c>
       <c r="D128">
-        <v>1.9629194783089285</v>
+        <v>1.9610394555014443</v>
       </c>
       <c r="E128">
-        <v>1.9624604674265387</v>
+        <v>1.9612969287802011</v>
       </c>
       <c r="F128">
-        <v>1.9637315459034932</v>
+        <v>1.9605521755344351</v>
       </c>
       <c r="G128">
-        <v>1.9622244003843408</v>
+        <v>1.9605536593222979</v>
       </c>
       <c r="H128">
-        <v>1.9622460143958498</v>
+        <v>1.9608061104293091</v>
       </c>
       <c r="I128">
-        <v>1.9650241180903161</v>
+        <v>1.9618957057666917</v>
       </c>
       <c r="J128">
-        <v>1.9629194783089285</v>
+        <v>1.9610394555014443</v>
       </c>
       <c r="K128">
-        <v>1.9624604674265387</v>
+        <v>1.9612969287802011</v>
       </c>
       <c r="L128">
-        <v>1.9637315459034932</v>
+        <v>1.9605521755344351</v>
       </c>
     </row>
     <row r="129">
@@ -2720,306 +2720,306 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.78418151282051274</v>
+        <v>0.94897544529756439</v>
       </c>
       <c r="B131">
-        <v>0.46893837881379985</v>
+        <v>0.90127835457286953</v>
       </c>
       <c r="C131">
-        <v>0.44436109757494108</v>
+        <v>0.89175028759525643</v>
       </c>
       <c r="D131">
-        <v>0.55336014492047181</v>
+        <v>0.8910797134923234</v>
       </c>
       <c r="E131">
-        <v>0.52468882212616896</v>
+        <v>0.86726870388035171</v>
       </c>
       <c r="F131">
-        <v>0.62429504818629056</v>
+        <v>0.86049348121195224</v>
       </c>
       <c r="G131">
-        <v>0.21581848717948718</v>
+        <v>0.051024554702435512</v>
       </c>
       <c r="H131">
-        <v>0.53106162118620015</v>
+        <v>0.09872164542713055</v>
       </c>
       <c r="I131">
-        <v>0.55563890242505898</v>
+        <v>0.1082497124047436</v>
       </c>
       <c r="J131">
-        <v>0.44663985507952819</v>
+        <v>0.10892028650767674</v>
       </c>
       <c r="K131">
-        <v>0.47531117787383098</v>
+        <v>0.1327312961196484</v>
       </c>
       <c r="L131">
-        <v>0.37570495181370939</v>
+        <v>0.13950651878804773</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.10395003466821941</v>
+        <v>0.02393202098120777</v>
       </c>
       <c r="B132">
-        <v>0.033346485007510196</v>
+        <v>0.0082393563110661275</v>
       </c>
       <c r="C132">
-        <v>0.027702602141312954</v>
+        <v>0.0071353757780769139</v>
       </c>
       <c r="D132">
-        <v>0.031151919166601216</v>
+        <v>0.0093477263589353005</v>
       </c>
       <c r="E132">
-        <v>0.044841610228470226</v>
+        <v>0.015803881569526342</v>
       </c>
       <c r="F132">
-        <v>0.058464093361063618</v>
+        <v>0.023898026915088785</v>
       </c>
       <c r="G132">
-        <v>0.10395003466821942</v>
+        <v>0.023932020981207773</v>
       </c>
       <c r="H132">
-        <v>0.033346485007510189</v>
+        <v>0.0082393563110661292</v>
       </c>
       <c r="I132">
-        <v>0.027702602141312961</v>
+        <v>0.0071353757780769139</v>
       </c>
       <c r="J132">
-        <v>0.031151919166601212</v>
+        <v>0.0093477263589353023</v>
       </c>
       <c r="K132">
-        <v>0.044841610228470226</v>
+        <v>0.015803881569526348</v>
       </c>
       <c r="L132">
-        <v>0.058464093361063611</v>
+        <v>0.023898026915088785</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>7.5438311812344221</v>
+        <v>39.652958939102213</v>
       </c>
       <c r="B133">
-        <v>14.062602961247249</v>
+        <v>109.38698613657225</v>
       </c>
       <c r="C133">
-        <v>16.04041004192398</v>
+        <v>124.97593894565647</v>
       </c>
       <c r="D133">
-        <v>17.7632762193908</v>
+        <v>95.325823550724564</v>
       </c>
       <c r="E133">
-        <v>11.700936238749087</v>
+        <v>54.876942734919815</v>
       </c>
       <c r="F133">
-        <v>10.678264423442911</v>
+        <v>36.006883926833815</v>
       </c>
       <c r="G133">
-        <v>2.0761752304202861</v>
+        <v>2.1320620913086157</v>
       </c>
       <c r="H133">
-        <v>15.925565200248126</v>
+        <v>11.981718194968618</v>
       </c>
       <c r="I133">
-        <v>20.057281969062149</v>
+        <v>15.170849548994383</v>
       </c>
       <c r="J133">
-        <v>14.337474769720847</v>
+        <v>11.652061937346085</v>
       </c>
       <c r="K133">
-        <v>10.599779433702246</v>
+        <v>8.3986516562858835</v>
       </c>
       <c r="L133">
-        <v>6.4262512289966409</v>
+        <v>5.837574762289929</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.515253383607461e-13</v>
+        <v>5.928146677259487e-233</v>
       </c>
       <c r="B134">
-        <v>2.575308360585358e-40</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>1.5527234404204271e-48</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>3.4473780278074512e-59</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>8.5594047211326229e-30</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>4.8361294727054358e-24</v>
+        <v>3.7292610594554525e-169</v>
       </c>
       <c r="G134">
-        <v>0.038263751510000776</v>
+        <v>0.033170821320383251</v>
       </c>
       <c r="H134">
-        <v>7.888779328180155e-50</v>
+        <v>1.577314774101138e-32</v>
       </c>
       <c r="I134">
-        <v>4.8348783065381331e-69</v>
+        <v>1.0765335331414195e-50</v>
       </c>
       <c r="J134">
-        <v>2.2211621334742411e-41</v>
+        <v>1.100425638363512e-30</v>
       </c>
       <c r="K134">
-        <v>5.378260298749543e-25</v>
+        <v>6.2850876315237198e-17</v>
       </c>
       <c r="L134">
-        <v>3.1383165296420669e-10</v>
+        <v>7.7127720566408709e-09</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.58006937242435486</v>
+        <v>0.90203002868433213</v>
       </c>
       <c r="B135">
-        <v>0.40348180713587017</v>
+        <v>0.88512464802365909</v>
       </c>
       <c r="C135">
-        <v>0.3899565362315871</v>
+        <v>0.87776130954099407</v>
       </c>
       <c r="D135">
-        <v>0.49220481340087863</v>
+        <v>0.87275071564967233</v>
       </c>
       <c r="E135">
-        <v>0.43669819834953016</v>
+        <v>0.83628385617749967</v>
       </c>
       <c r="F135">
-        <v>0.50941993230354576</v>
+        <v>0.81358278823640984</v>
       </c>
       <c r="G135">
-        <v>0.011706346783329213</v>
+        <v>0.0040791380892032172</v>
       </c>
       <c r="H135">
-        <v>0.46560504950827047</v>
+        <v>0.082567938877920119</v>
       </c>
       <c r="I135">
-        <v>0.50123434108170495</v>
+        <v>0.094260734350481282</v>
       </c>
       <c r="J135">
-        <v>0.38548452355993501</v>
+        <v>0.090591288665025693</v>
       </c>
       <c r="K135">
-        <v>0.38732055409719218</v>
+        <v>0.10174644841679631</v>
       </c>
       <c r="L135">
-        <v>0.26082983593096465</v>
+        <v>0.092595825812505389</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.98829365321667062</v>
+        <v>0.99592086191079665</v>
       </c>
       <c r="B136">
-        <v>0.53439495049172958</v>
+        <v>0.91743206112207998</v>
       </c>
       <c r="C136">
-        <v>0.49876565891829505</v>
+        <v>0.90573926564951879</v>
       </c>
       <c r="D136">
-        <v>0.61451547644006499</v>
+        <v>0.90940871133497447</v>
       </c>
       <c r="E136">
-        <v>0.61267944590280776</v>
+        <v>0.89825355158320375</v>
       </c>
       <c r="F136">
-        <v>0.73917016406903535</v>
+        <v>0.90740417418749464</v>
       </c>
       <c r="G136">
-        <v>0.41993062757564514</v>
+        <v>0.097969971315667814</v>
       </c>
       <c r="H136">
-        <v>0.59651819286412977</v>
+        <v>0.11487535197634098</v>
       </c>
       <c r="I136">
-        <v>0.61004346376841301</v>
+        <v>0.12223869045900591</v>
       </c>
       <c r="J136">
-        <v>0.50779518659912137</v>
+        <v>0.12724928435032778</v>
       </c>
       <c r="K136">
-        <v>0.56330180165046984</v>
+        <v>0.16371614382250049</v>
       </c>
       <c r="L136">
-        <v>0.49058006769645413</v>
+        <v>0.18641721176359008</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>660.86544900758406</v>
+        <v>1437.8535648669213</v>
       </c>
       <c r="B137">
-        <v>802.98605727132644</v>
+        <v>4018.927498529687</v>
       </c>
       <c r="C137">
-        <v>607.11557842734487</v>
+        <v>4343.1135053261414</v>
       </c>
       <c r="D137">
-        <v>749.99241724628246</v>
+        <v>2847.5242334454379</v>
       </c>
       <c r="E137">
-        <v>1037.1618410594426</v>
+        <v>3823.2972422353059</v>
       </c>
       <c r="F137">
-        <v>483.43320043542207</v>
+        <v>794.97081110708848</v>
       </c>
       <c r="G137">
-        <v>660.86544900758292</v>
+        <v>1437.8535648669174</v>
       </c>
       <c r="H137">
-        <v>802.98605727132951</v>
+        <v>4018.9274985296688</v>
       </c>
       <c r="I137">
-        <v>607.11557842734192</v>
+        <v>4343.1135053261378</v>
       </c>
       <c r="J137">
-        <v>749.99241724628394</v>
+        <v>2847.5242334454097</v>
       </c>
       <c r="K137">
-        <v>1037.1618410594424</v>
+        <v>3823.29724223523</v>
       </c>
       <c r="L137">
-        <v>483.43320043542326</v>
+        <v>794.97081110708837</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9635600993076057</v>
+        <v>1.9616152204653095</v>
       </c>
       <c r="B138">
-        <v>1.9629226787527305</v>
+        <v>1.9605544340295955</v>
       </c>
       <c r="C138">
-        <v>1.9638790993651942</v>
+        <v>1.9605103486270135</v>
       </c>
       <c r="D138">
-        <v>1.9631320687670319</v>
+        <v>1.960797432322217</v>
       </c>
       <c r="E138">
-        <v>1.9622538826844582</v>
+        <v>1.9605846555189499</v>
       </c>
       <c r="F138">
-        <v>1.9648832176922149</v>
+        <v>1.9629525542932493</v>
       </c>
       <c r="G138">
-        <v>1.9635600993076057</v>
+        <v>1.9616152204653095</v>
       </c>
       <c r="H138">
-        <v>1.9629226787527305</v>
+        <v>1.9605544340295955</v>
       </c>
       <c r="I138">
-        <v>1.9638790993651942</v>
+        <v>1.9605103486270135</v>
       </c>
       <c r="J138">
-        <v>1.9631320687670319</v>
+        <v>1.960797432322217</v>
       </c>
       <c r="K138">
-        <v>1.9622538826844582</v>
+        <v>1.9605846555189499</v>
       </c>
       <c r="L138">
-        <v>1.9648832176922149</v>
+        <v>1.9629525542932493</v>
       </c>
     </row>
     <row r="139">
@@ -3062,306 +3062,306 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.5384059743589743</v>
+        <v>0.90746929733600479</v>
       </c>
       <c r="B141">
-        <v>0.84394219566543305</v>
+        <v>0.97155908763038623</v>
       </c>
       <c r="C141">
-        <v>0.7947815296947629</v>
+        <v>0.96069632621025147</v>
       </c>
       <c r="D141">
-        <v>0.81271812502632135</v>
+        <v>0.95285323370823305</v>
       </c>
       <c r="E141">
-        <v>0.81127630261651651</v>
+        <v>0.9453117846063277</v>
       </c>
       <c r="F141">
-        <v>0.76353196003150114</v>
+        <v>0.90506448057547162</v>
       </c>
       <c r="G141">
-        <v>0.4615940256410257</v>
+        <v>0.09253070266399524</v>
       </c>
       <c r="H141">
-        <v>0.1560578043345669</v>
+        <v>0.028440912369613734</v>
       </c>
       <c r="I141">
-        <v>0.20521847030523716</v>
+        <v>0.03930367378974859</v>
       </c>
       <c r="J141">
-        <v>0.18728187497367871</v>
+        <v>0.04714676629176693</v>
       </c>
       <c r="K141">
-        <v>0.18872369738348357</v>
+        <v>0.054688215393672232</v>
       </c>
       <c r="L141">
-        <v>0.23646803996849894</v>
+        <v>0.094935519424528395</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.11758703091875709</v>
+        <v>0.030875617791067959</v>
       </c>
       <c r="B142">
-        <v>0.02421072662795095</v>
+        <v>0.0047608469190209913</v>
       </c>
       <c r="C142">
-        <v>0.022135639910409476</v>
+        <v>0.0046366278945378387</v>
       </c>
       <c r="D142">
-        <v>0.023571409546669156</v>
+        <v>0.0064893321753474132</v>
       </c>
       <c r="E142">
-        <v>0.035031787317070559</v>
+        <v>0.01092815831448535</v>
       </c>
       <c r="F142">
-        <v>0.048389158337570265</v>
+        <v>0.018829324256556326</v>
       </c>
       <c r="G142">
-        <v>0.11758703091875709</v>
+        <v>0.030875617791067955</v>
       </c>
       <c r="H142">
-        <v>0.024210726627950954</v>
+        <v>0.0047608469190209887</v>
       </c>
       <c r="I142">
-        <v>0.022135639910409479</v>
+        <v>0.0046366278945378318</v>
       </c>
       <c r="J142">
-        <v>0.023571409546669156</v>
+        <v>0.0064893321753474132</v>
       </c>
       <c r="K142">
-        <v>0.035031787317070559</v>
+        <v>0.01092815831448535</v>
       </c>
       <c r="L142">
-        <v>0.048389158337570265</v>
+        <v>0.018829324256556337</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>4.5787870494916083</v>
+        <v>29.391130032660516</v>
       </c>
       <c r="B143">
-        <v>34.858193586437565</v>
+        <v>204.07274255106174</v>
       </c>
       <c r="C143">
-        <v>35.905062284691851</v>
+        <v>207.19720194540434</v>
       </c>
       <c r="D143">
-        <v>34.478978587055494</v>
+        <v>146.83378935787348</v>
       </c>
       <c r="E143">
-        <v>23.158290362798347</v>
+        <v>86.502387447417405</v>
       </c>
       <c r="F143">
-        <v>15.778988233376243</v>
+        <v>48.06675312632796</v>
       </c>
       <c r="G143">
-        <v>3.9255521806647962</v>
+        <v>2.996885869301166</v>
       </c>
       <c r="H143">
-        <v>6.4458125000841688</v>
+        <v>5.9739186857665798</v>
       </c>
       <c r="I143">
-        <v>9.2709526869711762</v>
+        <v>8.4767798244172639</v>
       </c>
       <c r="J143">
-        <v>7.9452980782875269</v>
+        <v>7.265272452976701</v>
       </c>
       <c r="K143">
-        <v>5.3872129239469562</v>
+        <v>5.0043395986661929</v>
       </c>
       <c r="L143">
-        <v>4.8867979541793485</v>
+        <v>5.0418973156443476</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>5.2356968026923458e-06</v>
+        <v>1.1822729485894821e-167</v>
       </c>
       <c r="B144">
-        <v>3.1459919629000302e-168</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>7.5955143699120681e-179</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>2.6432498175052109e-175</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1.5507335285669058e-95</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.8161241298054777e-46</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>9.2163524328622571e-05</v>
+        <v>0.0027492198576025274</v>
       </c>
       <c r="H144">
-        <v>1.8877517685992706e-10</v>
+        <v>2.5966723996530261e-09</v>
       </c>
       <c r="I144">
-        <v>1.2139580914071553e-19</v>
+        <v>3.1517804839920634e-17</v>
       </c>
       <c r="J144">
-        <v>4.9255344414668571e-15</v>
+        <v>4.3017074414393371e-13</v>
       </c>
       <c r="K144">
-        <v>8.900923641449758e-08</v>
+        <v>5.9428576044587484e-07</v>
       </c>
       <c r="L144">
-        <v>1.3499531580271871e-06</v>
+        <v>4.8424972537921127e-07</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.30767392173617547</v>
+        <v>0.84693049239346785</v>
       </c>
       <c r="B145">
-        <v>0.79642503578261736</v>
+        <v>0.96222412524544487</v>
       </c>
       <c r="C145">
-        <v>0.75134091723233176</v>
+        <v>0.95160611513502547</v>
       </c>
       <c r="D145">
-        <v>0.766466182214247</v>
+        <v>0.94013127569569854</v>
       </c>
       <c r="E145">
-        <v>0.74253300657630217</v>
+        <v>0.92388397171116354</v>
       </c>
       <c r="F145">
-        <v>0.6684797217438172</v>
+        <v>0.86814695905960748</v>
       </c>
       <c r="G145">
-        <v>0.23086197301822686</v>
+        <v>0.031991897721458259</v>
       </c>
       <c r="H145">
-        <v>0.10854064445175121</v>
+        <v>0.01910594998467241</v>
       </c>
       <c r="I145">
-        <v>0.16177785784280604</v>
+        <v>0.030213462714522559</v>
       </c>
       <c r="J145">
-        <v>0.14102993216160437</v>
+        <v>0.034424808279232402</v>
       </c>
       <c r="K145">
-        <v>0.11998040134326925</v>
+        <v>0.033260402498508118</v>
       </c>
       <c r="L145">
-        <v>0.14141580168081497</v>
+        <v>0.058017997908664271</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.76913802698177314</v>
+        <v>0.96800810227854173</v>
       </c>
       <c r="B146">
-        <v>0.89145935554824873</v>
+        <v>0.98089405001532759</v>
       </c>
       <c r="C146">
-        <v>0.83822214215719404</v>
+        <v>0.96978653728547748</v>
       </c>
       <c r="D146">
-        <v>0.85897006783839569</v>
+        <v>0.96557519172076756</v>
       </c>
       <c r="E146">
-        <v>0.88001959865673085</v>
+        <v>0.96673959750149185</v>
       </c>
       <c r="F146">
-        <v>0.85858419831918509</v>
+        <v>0.94198200209133576</v>
       </c>
       <c r="G146">
-        <v>0.69232607826382453</v>
+        <v>0.15306950760653221</v>
       </c>
       <c r="H146">
-        <v>0.20357496421738258</v>
+        <v>0.037775874754555058</v>
       </c>
       <c r="I146">
-        <v>0.24865908276766827</v>
+        <v>0.048393884864974618</v>
       </c>
       <c r="J146">
-        <v>0.23353381778575305</v>
+        <v>0.059868724304301457</v>
       </c>
       <c r="K146">
-        <v>0.25746699342369789</v>
+        <v>0.076116028288836346</v>
       </c>
       <c r="L146">
-        <v>0.33152027825618291</v>
+        <v>0.13185304094039252</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1051.023902725964</v>
+        <v>3090.9187980161219</v>
       </c>
       <c r="B147">
-        <v>884.69170114541862</v>
+        <v>2916.6123429194581</v>
       </c>
       <c r="C147">
-        <v>946.40235085476331</v>
+        <v>4252.3190430497789</v>
       </c>
       <c r="D147">
-        <v>1059.6561980537326</v>
+        <v>4966.0780078749294</v>
       </c>
       <c r="E147">
-        <v>1011.5270713369407</v>
+        <v>2876.5261742600346</v>
       </c>
       <c r="F147">
-        <v>544.63387385711587</v>
+        <v>3511.708687088415</v>
       </c>
       <c r="G147">
-        <v>1051.023902725964</v>
+        <v>3090.9187980161364</v>
       </c>
       <c r="H147">
-        <v>884.69170114541816</v>
+        <v>2916.6123429195272</v>
       </c>
       <c r="I147">
-        <v>946.40235085476183</v>
+        <v>4252.3190430500053</v>
       </c>
       <c r="J147">
-        <v>1059.6561980537324</v>
+        <v>4966.0780078749385</v>
       </c>
       <c r="K147">
-        <v>1011.5270713369403</v>
+        <v>2876.5261742600446</v>
       </c>
       <c r="L147">
-        <v>544.63387385711701</v>
+        <v>3511.7086870883395</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9622236467745799</v>
+        <v>1.9607317771646442</v>
       </c>
       <c r="B148">
-        <v>1.9626490610140452</v>
+        <v>1.9607776817283067</v>
       </c>
       <c r="C148">
-        <v>1.9624737589809993</v>
+        <v>1.9605220177221321</v>
       </c>
       <c r="D148">
-        <v>1.9622052181690655</v>
+        <v>1.9604417941285994</v>
       </c>
       <c r="E148">
-        <v>1.9623119830576432</v>
+        <v>1.9607890257923331</v>
       </c>
       <c r="F148">
-        <v>1.964329233101862</v>
+        <v>1.9606397453700182</v>
       </c>
       <c r="G148">
-        <v>1.9622236467745799</v>
+        <v>1.9607317771646442</v>
       </c>
       <c r="H148">
-        <v>1.9626490610140452</v>
+        <v>1.9607776817283067</v>
       </c>
       <c r="I148">
-        <v>1.9624737589809993</v>
+        <v>1.9605220177221321</v>
       </c>
       <c r="J148">
-        <v>1.9622052181690655</v>
+        <v>1.9604417941285994</v>
       </c>
       <c r="K148">
-        <v>1.9623119830576432</v>
+        <v>1.9607890257923331</v>
       </c>
       <c r="L148">
-        <v>1.964329233101862</v>
+        <v>1.9606397453700182</v>
       </c>
     </row>
     <row r="149">
@@ -3404,114 +3404,114 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.68689289621179384</v>
+        <v>0.94690010427301785</v>
       </c>
       <c r="B151">
-        <v>0.68535636509666187</v>
+        <v>0.91735923592728719</v>
       </c>
       <c r="C151">
-        <v>0.31310710378820616</v>
+        <v>0.053099895726982017</v>
       </c>
       <c r="D151">
-        <v>0.31464363490333813</v>
+        <v>0.082640764072712855</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.027283820454827926</v>
+        <v>0.0053421427065755934</v>
       </c>
       <c r="B152">
-        <v>0.01665017246488066</v>
+        <v>0.0050446899757033738</v>
       </c>
       <c r="C152">
-        <v>0.027283820454827929</v>
+        <v>0.0053421427065755969</v>
       </c>
       <c r="D152">
-        <v>0.016650172464880656</v>
+        <v>0.0050446899757033738</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>25.175832590931993</v>
+        <v>177.25099389566799</v>
       </c>
       <c r="B153">
-        <v>41.162118082695436</v>
+        <v>181.84650401621184</v>
       </c>
       <c r="C153">
-        <v>11.475925972559359</v>
+        <v>9.9398122894811145</v>
       </c>
       <c r="D153">
-        <v>18.897319866625981</v>
+        <v>16.381732964906405</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.0105075228011255e-103</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>2.0275768483087678e-219</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>2.3851094301778366e-28</v>
+        <v>7.7762473079131722e-23</v>
       </c>
       <c r="D154">
-        <v>1.4259966489553615e-68</v>
+        <v>1.2784263402823688e-58</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.63333741753006323</v>
+        <v>0.93642433889579824</v>
       </c>
       <c r="B155">
-        <v>0.65268405990131839</v>
+        <v>0.90746914779660304</v>
       </c>
       <c r="C155">
-        <v>0.2595516251064755</v>
+        <v>0.042624130349762347</v>
       </c>
       <c r="D155">
-        <v>0.2819713297079946</v>
+        <v>0.072750675942028664</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.74044837489352444</v>
+        <v>0.95737586965023747</v>
       </c>
       <c r="B156">
-        <v>0.71802867029200534</v>
+        <v>0.92724932405797134</v>
       </c>
       <c r="C156">
-        <v>0.36666258246993683</v>
+        <v>0.063575661104201681</v>
       </c>
       <c r="D156">
-        <v>0.34731594009868166</v>
+        <v>0.092530852203397046</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>808.4990236008623</v>
+        <v>2366.4081995149022</v>
       </c>
       <c r="B157">
-        <v>1025.3526405206583</v>
+        <v>4470.8549699170171</v>
       </c>
       <c r="C157">
-        <v>808.49902360086094</v>
+        <v>2366.4081995148263</v>
       </c>
       <c r="D157">
-        <v>1025.352640520661</v>
+        <v>4470.854969917008</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9629024743949994</v>
+        <v>1.9609669663682217</v>
       </c>
       <c r="B158">
-        <v>1.9622802865410256</v>
+        <v>1.9604947337334098</v>
       </c>
       <c r="C158">
-        <v>1.9629024743949994</v>
+        <v>1.9609669663682217</v>
       </c>
       <c r="D158">
-        <v>1.9622802865410256</v>
+        <v>1.9604947337334098</v>
       </c>
     </row>
     <row r="159">
@@ -3530,114 +3530,114 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.49643860221509251</v>
+        <v>0.91547934535414055</v>
       </c>
       <c r="B161">
-        <v>0.51502831180757336</v>
+        <v>0.87635346968434558</v>
       </c>
       <c r="C161">
-        <v>0.50356139778490749</v>
+        <v>0.084520654645859408</v>
       </c>
       <c r="D161">
-        <v>0.48497168819242659</v>
+        <v>0.12364653031565449</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.029541431719913729</v>
+        <v>0.0064664523210978394</v>
       </c>
       <c r="B162">
-        <v>0.017693107365314823</v>
+        <v>0.0057916757602517422</v>
       </c>
       <c r="C162">
-        <v>0.029541431719913729</v>
+        <v>0.0064664523210978351</v>
       </c>
       <c r="D162">
-        <v>0.017693107365314823</v>
+        <v>0.005791675760251744</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>16.804825403246983</v>
+        <v>141.57366356313216</v>
       </c>
       <c r="B163">
-        <v>29.108980190626294</v>
+        <v>151.31259171978471</v>
       </c>
       <c r="C163">
-        <v>17.045937467054426</v>
+        <v>13.070637568933625</v>
       </c>
       <c r="D163">
-        <v>27.41020433432481</v>
+        <v>21.349007685174698</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>7.2870777541135946e-54</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>4.3290614745805827e-135</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>3.8313491475724294e-55</v>
+        <v>2.4549920928841725e-38</v>
       </c>
       <c r="D164">
-        <v>1.5459253796180905e-123</v>
+        <v>1.426503307230827e-96</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.43844283225589675</v>
+        <v>0.90280187282040347</v>
       </c>
       <c r="B165">
-        <v>0.48030801282474833</v>
+        <v>0.8649990529795818</v>
       </c>
       <c r="C165">
-        <v>0.44556562782571174</v>
+        <v>0.071843182112122303</v>
       </c>
       <c r="D165">
-        <v>0.45025138920960156</v>
+        <v>0.11229211361089067</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.55443437217428826</v>
+        <v>0.92815681788787763</v>
       </c>
       <c r="B166">
-        <v>0.54974861079039838</v>
+        <v>0.88770788638910936</v>
       </c>
       <c r="C166">
-        <v>0.56155716774410325</v>
+        <v>0.097198127179596513</v>
       </c>
       <c r="D166">
-        <v>0.51969198717525167</v>
+        <v>0.13500094702041832</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>734.03411800625213</v>
+        <v>4436.2073196637848</v>
       </c>
       <c r="B167">
-        <v>990.04763799179864</v>
+        <v>4673.1852896249266</v>
       </c>
       <c r="C167">
-        <v>734.03411800625213</v>
+        <v>4436.2073196638867</v>
       </c>
       <c r="D167">
-        <v>990.0476379918</v>
+        <v>4673.1852896248738</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9632010563692852</v>
+        <v>1.9604988801007359</v>
       </c>
       <c r="B168">
-        <v>1.962362984971761</v>
+        <v>1.960471748554909</v>
       </c>
       <c r="C168">
-        <v>1.9632010563692852</v>
+        <v>1.9604988801007359</v>
       </c>
       <c r="D168">
-        <v>1.962362984971761</v>
+        <v>1.960471748554909</v>
       </c>
     </row>
     <row r="169">
@@ -3656,114 +3656,114 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.81666850157311366</v>
+        <v>0.96951165988172683</v>
       </c>
       <c r="B171">
-        <v>0.79961532309576477</v>
+        <v>0.9458806154024032</v>
       </c>
       <c r="C171">
-        <v>0.18333149842688634</v>
+        <v>0.030488340118273193</v>
       </c>
       <c r="D171">
-        <v>0.20038467690423528</v>
+        <v>0.054119384597596756</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.022171613411867686</v>
+        <v>0.004036628431462499</v>
       </c>
       <c r="B172">
-        <v>0.014067250691018782</v>
+        <v>0.0042236847509171454</v>
       </c>
       <c r="C172">
-        <v>0.022171613411867686</v>
+        <v>0.0040366284314624938</v>
       </c>
       <c r="D172">
-        <v>0.014067250691018782</v>
+        <v>0.0042236847509171394</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>36.833968119612791</v>
+        <v>240.17857386256031</v>
       </c>
       <c r="B173">
-        <v>56.84233121730589</v>
+        <v>223.94678371699294</v>
       </c>
       <c r="C173">
-        <v>8.2687486481590664</v>
+        <v>7.5529221071326331</v>
       </c>
       <c r="D173">
-        <v>14.244764759340688</v>
+        <v>12.813310601802174</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>4.4913736009945765e-189</v>
+        <v>0</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174">
-        <v>4.2246952486108961e-16</v>
+        <v>5.5019867459465175e-14</v>
       </c>
       <c r="D174">
-        <v>2.737778321308662e-42</v>
+        <v>5.5588749708654819e-37</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.77316088874509603</v>
+        <v>0.96159705776972026</v>
       </c>
       <c r="B175">
-        <v>0.77201278922299077</v>
+        <v>0.93760025282144932</v>
       </c>
       <c r="C175">
-        <v>0.13982388559886877</v>
+        <v>0.022573738006266646</v>
       </c>
       <c r="D175">
-        <v>0.17278214303146122</v>
+        <v>0.045839022016642902</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.86017611440113129</v>
+        <v>0.97742626199373339</v>
       </c>
       <c r="B176">
-        <v>0.82721785696853878</v>
+        <v>0.95416097798335708</v>
       </c>
       <c r="C176">
-        <v>0.22683911125490391</v>
+        <v>0.038402942230279735</v>
       </c>
       <c r="D176">
-        <v>0.22798721077700934</v>
+        <v>0.06239974717855061</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1011.7183462575885</v>
+        <v>3240.9498867397424</v>
       </c>
       <c r="B177">
-        <v>1069.7848940392657</v>
+        <v>4789.3898330482552</v>
       </c>
       <c r="C177">
-        <v>1011.7183462575896</v>
+        <v>3240.9498867399361</v>
       </c>
       <c r="D177">
-        <v>1069.7848940392655</v>
+        <v>4789.3898330484144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9623115386239542</v>
+        <v>1.9606962212122756</v>
       </c>
       <c r="B178">
-        <v>1.9621839746125267</v>
+        <v>1.9604594256604599</v>
       </c>
       <c r="C178">
-        <v>1.9623115386239542</v>
+        <v>1.9606962212122756</v>
       </c>
       <c r="D178">
-        <v>1.9621839746125267</v>
+        <v>1.9604594256604599</v>
       </c>
     </row>
     <row r="179">
@@ -3782,114 +3782,114 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.53365412186379935</v>
+        <v>0.93419663583257662</v>
       </c>
       <c r="B181">
-        <v>0.69626842487087626</v>
+        <v>0.92621722477623103</v>
       </c>
       <c r="C181">
-        <v>0.46634587813620076</v>
+        <v>0.065803364167423509</v>
       </c>
       <c r="D181">
-        <v>0.30373157512912374</v>
+        <v>0.073782775223769179</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.086431760750851169</v>
+        <v>0.015729312596128597</v>
       </c>
       <c r="B182">
-        <v>0.014668615364491393</v>
+        <v>0.0041069222016584519</v>
       </c>
       <c r="C182">
-        <v>0.086431760750851169</v>
+        <v>0.015729312596128597</v>
       </c>
       <c r="D182">
-        <v>0.014668615364491393</v>
+        <v>0.0041069222016584519</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>6.1742826621583546</v>
+        <v>59.392082783230293</v>
       </c>
       <c r="B183">
-        <v>47.466540472275724</v>
+        <v>225.52587541156907</v>
       </c>
       <c r="C183">
-        <v>5.3955383308746052</v>
+        <v>4.1834863262632007</v>
       </c>
       <c r="D183">
-        <v>20.70621988387348</v>
+        <v>17.965466984978267</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>9.3664441146561638e-10</v>
+        <v>0</v>
       </c>
       <c r="B184">
-        <v>2.0103182945770795e-267</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>8.3792958684188952e-08</v>
+        <v>2.9184615095014175e-05</v>
       </c>
       <c r="D184">
-        <v>1.4298578187739496e-80</v>
+        <v>4.7983079945998255e-70</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.36406249630076115</v>
+        <v>0.90336050530911849</v>
       </c>
       <c r="B185">
-        <v>0.66748647824833729</v>
+        <v>0.91816591367880918</v>
       </c>
       <c r="C185">
-        <v>0.29675425257316257</v>
+        <v>0.034967233643965388</v>
       </c>
       <c r="D185">
-        <v>0.27494962850658483</v>
+        <v>0.065731464126347297</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.70324574742683754</v>
+        <v>0.96503276635603474</v>
       </c>
       <c r="B186">
-        <v>0.72505037149341522</v>
+        <v>0.93426853587365288</v>
       </c>
       <c r="C186">
-        <v>0.63593750369923896</v>
+        <v>0.096639494690881622</v>
       </c>
       <c r="D186">
-        <v>0.33251352175166266</v>
+        <v>0.08183408632119106</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B187">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C187">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D187">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B188">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C188">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D188">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="189">
@@ -3908,114 +3908,114 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.66906321684587811</v>
+        <v>0.95346757453440534</v>
       </c>
       <c r="B191">
-        <v>0.49572481787593181</v>
+        <v>0.88042569108311175</v>
       </c>
       <c r="C191">
-        <v>0.33093678315412189</v>
+        <v>0.046532425465594759</v>
       </c>
       <c r="D191">
-        <v>0.5042751821240683</v>
+        <v>0.11957430891688814</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.083248503243651906</v>
+        <v>0.01376564275392592</v>
       </c>
       <c r="B192">
-        <v>0.015757611637500023</v>
+        <v>0.0049229204687063557</v>
       </c>
       <c r="C192">
-        <v>0.083248503243651906</v>
+        <v>0.01376564275392592</v>
       </c>
       <c r="D192">
-        <v>0.015757611637500023</v>
+        <v>0.0049229204687063557</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>8.036939894134342</v>
+        <v>69.264297467147273</v>
       </c>
       <c r="B193">
-        <v>31.459387963097406</v>
+        <v>178.84215206801215</v>
       </c>
       <c r="C193">
-        <v>3.9752880863879962</v>
+        <v>3.3803307478921645</v>
       </c>
       <c r="D193">
-        <v>32.002005997152025</v>
+        <v>24.28930340780213</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>2.382018998175032e-15</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>4.6628738098391736e-155</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>7.492762167067167e-05</v>
+        <v>0.00072936849374452106</v>
       </c>
       <c r="D194">
-        <v>6.018850479400633e-159</v>
+        <v>1.7706584150121547e-123</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.50571760328747617</v>
+        <v>0.92648107057212592</v>
       </c>
       <c r="B195">
-        <v>0.46480610293388591</v>
+        <v>0.87077467695252631</v>
       </c>
       <c r="C195">
-        <v>0.16759116959572001</v>
+        <v>0.01954592150331539</v>
       </c>
       <c r="D195">
-        <v>0.4733564671820224</v>
+        <v>0.10992329478630269</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.83240883040428004</v>
+        <v>0.98045407849668476</v>
       </c>
       <c r="B196">
-        <v>0.52664353281797771</v>
+        <v>0.89007670521369719</v>
       </c>
       <c r="C196">
-        <v>0.49428239671252377</v>
+        <v>0.073518929427874136</v>
       </c>
       <c r="D196">
-        <v>0.5351938970661142</v>
+        <v>0.12922532304747358</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B197">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C197">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D197">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B198">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C198">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D198">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="199">
@@ -4034,114 +4034,114 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.79728266129032255</v>
+        <v>0.97120422584008881</v>
       </c>
       <c r="B201">
-        <v>0.80800675725319204</v>
+        <v>0.95278512939145921</v>
       </c>
       <c r="C201">
-        <v>0.20271733870967745</v>
+        <v>0.028795774159911199</v>
       </c>
       <c r="D201">
-        <v>0.19199324274680798</v>
+        <v>0.047214870608540828</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.059323537573651351</v>
+        <v>0.0087900787357381837</v>
       </c>
       <c r="B202">
-        <v>0.012447086309867517</v>
+        <v>0.0033877463148055428</v>
       </c>
       <c r="C202">
-        <v>0.059323537573651351</v>
+        <v>0.0087900787357381837</v>
       </c>
       <c r="D202">
-        <v>0.012447086309867517</v>
+        <v>0.0033877463148055428</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>13.43956705718165</v>
+        <v>110.48868332560252</v>
       </c>
       <c r="B203">
-        <v>64.915333367025738</v>
+        <v>281.2445327524913</v>
       </c>
       <c r="C203">
-        <v>3.4171485214953652</v>
+        <v>3.2759404125511455</v>
       </c>
       <c r="D203">
-        <v>15.424753871482675</v>
+        <v>13.936955787449795</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>3.2760638398871869e-38</v>
+        <v>0</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="C204">
-        <v>0.00065618677647375444</v>
+        <v>0.0010600752858937264</v>
       </c>
       <c r="D204">
-        <v>1.0638611958135619e-48</v>
+        <v>2.2952804283827318e-43</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.68088129350763016</v>
+        <v>0.95397193971504801</v>
       </c>
       <c r="B205">
-        <v>0.78358377220144904</v>
+        <v>0.94614370835635186</v>
       </c>
       <c r="C205">
-        <v>0.086315970926985036</v>
+        <v>0.011563488034870395</v>
       </c>
       <c r="D205">
-        <v>0.16757025769506492</v>
+        <v>0.040573449573433444</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.91368402907301494</v>
+        <v>0.9884365119651296</v>
       </c>
       <c r="B206">
-        <v>0.83242974230493505</v>
+        <v>0.95942655042656655</v>
       </c>
       <c r="C206">
-        <v>0.31911870649236984</v>
+        <v>0.046028060284952002</v>
       </c>
       <c r="D206">
-        <v>0.21641622779855105</v>
+        <v>0.053856291643648212</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B207">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C207">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D207">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B208">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C208">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D208">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="209">
@@ -4160,114 +4160,162 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.65184805836319271</v>
+        <v>0.88843607979243955</v>
       </c>
       <c r="B211">
-        <v>0.84793694862412516</v>
+        <v>0.92900230131934658</v>
       </c>
       <c r="C211">
-        <v>0.34815194163680724</v>
+        <v>0.95094093487515519</v>
       </c>
       <c r="D211">
-        <v>0.15206305137587489</v>
+        <v>0.11156392020756038</v>
+      </c>
+      <c r="E211">
+        <v>0.070997698680653448</v>
+      </c>
+      <c r="F211">
+        <v>0.049059065124844765</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.015743764973068428</v>
+        <v>0.0083681243628711179</v>
       </c>
       <c r="B212">
-        <v>0.02899431976176876</v>
+        <v>0.0099259712203390773</v>
       </c>
       <c r="C212">
-        <v>0.015743764973068428</v>
+        <v>0.004110005710699441</v>
       </c>
       <c r="D212">
-        <v>0.028994319761768764</v>
+        <v>0.0083681243628711162</v>
+      </c>
+      <c r="E212">
+        <v>0.0099259712203390704</v>
+      </c>
+      <c r="F212">
+        <v>0.004110005710699441</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>41.403568935274116</v>
+        <v>106.16908177588503</v>
       </c>
       <c r="B213">
-        <v>29.24493333836358</v>
+        <v>93.593088343410614</v>
       </c>
       <c r="C213">
-        <v>22.113639414229208</v>
+        <v>231.37216875382978</v>
       </c>
       <c r="D213">
-        <v>5.2445807532405606</v>
+        <v>13.332010301204777</v>
+      </c>
+      <c r="E213">
+        <v>7.1527205856867448</v>
+      </c>
+      <c r="F213">
+        <v>11.936495610488066</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1.1911572294584739e-225</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>1.0951854156588937e-134</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>9.1139290943429196e-90</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>1.9301498042558254e-07</v>
+        <v>1.172865123008801e-39</v>
+      </c>
+      <c r="E214">
+        <v>1.8496802884234082e-12</v>
+      </c>
+      <c r="F214">
+        <v>2.4022028729083878e-32</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.62095643554182733</v>
+        <v>0.87202959796228374</v>
       </c>
       <c r="B215">
-        <v>0.79103683455345908</v>
+        <v>0.90951973626481453</v>
       </c>
       <c r="C215">
-        <v>0.31726031881544187</v>
+        <v>0.94288325338785961</v>
       </c>
       <c r="D215">
-        <v>0.095162937305208778</v>
+        <v>0.095157438377404535</v>
+      </c>
+      <c r="E215">
+        <v>0.051515133626121368</v>
+      </c>
+      <c r="F215">
+        <v>0.041001383637549176</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.68273968118455808</v>
+        <v>0.90484256162259535</v>
       </c>
       <c r="B216">
-        <v>0.90483706269479125</v>
+        <v>0.94848486637387863</v>
       </c>
       <c r="C216">
-        <v>0.37904356445817261</v>
+        <v>0.95899861636245076</v>
       </c>
       <c r="D216">
-        <v>0.208963165446541</v>
+        <v>0.12797040203771623</v>
+      </c>
+      <c r="E216">
+        <v>0.090480263735185529</v>
+      </c>
+      <c r="F216">
+        <v>0.057116746612140355</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1086.5700489570177</v>
+        <v>3775.6185836758873</v>
       </c>
       <c r="B217">
-        <v>952.64725508783033</v>
+        <v>841.58829554645195</v>
       </c>
       <c r="C217">
-        <v>1086.5700489570179</v>
+        <v>4396.4333108647716</v>
       </c>
       <c r="D217">
-        <v>952.64725508782885</v>
+        <v>3775.6185836759087</v>
+      </c>
+      <c r="E217">
+        <v>841.58829554647218</v>
+      </c>
+      <c r="F217">
+        <v>4396.4333108647616</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9621496429989365</v>
+        <v>1.9605924958465548</v>
       </c>
       <c r="B218">
-        <v>1.9624572860541214</v>
+        <v>1.9627867764325992</v>
       </c>
       <c r="C218">
-        <v>1.9621496429989365</v>
+        <v>1.9605037205469806</v>
       </c>
       <c r="D218">
-        <v>1.9624572860541214</v>
+        <v>1.9605924958465548</v>
+      </c>
+      <c r="E218">
+        <v>1.9627867764325992</v>
+      </c>
+      <c r="F218">
+        <v>1.9605037205469806</v>
       </c>
     </row>
     <row r="219">
@@ -4283,117 +4331,171 @@
       <c r="D219">
         <v>0</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.54962053412229783</v>
+        <v>0.90471716979105599</v>
       </c>
       <c r="B221">
-        <v>0.31297476409440617</v>
+        <v>0.88664121193901724</v>
       </c>
       <c r="C221">
-        <v>0.45037946587770217</v>
+        <v>0.88597621553125394</v>
       </c>
       <c r="D221">
-        <v>0.68702523590559372</v>
+        <v>0.095282830208944055</v>
+      </c>
+      <c r="E221">
+        <v>0.11335878806098262</v>
+      </c>
+      <c r="F221">
+        <v>0.11402378446874598</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.016264658674704773</v>
+        <v>0.0078470912700954656</v>
       </c>
       <c r="B222">
-        <v>0.03786379518365228</v>
+        <v>0.01174637523407091</v>
       </c>
       <c r="C222">
-        <v>0.016264658674704773</v>
+        <v>0.0059661469413206944</v>
       </c>
       <c r="D222">
-        <v>0.03786379518365228</v>
+        <v>0.0078470912700954656</v>
+      </c>
+      <c r="E222">
+        <v>0.011746375234070919</v>
+      </c>
+      <c r="F222">
+        <v>0.0059661469413206944</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>33.792318985278321</v>
+        <v>115.29331552939226</v>
       </c>
       <c r="B223">
-        <v>8.2658054369978533</v>
+        <v>75.482112078905246</v>
       </c>
       <c r="C223">
-        <v>27.690680443122009</v>
+        <v>148.50056900126066</v>
       </c>
       <c r="D223">
-        <v>18.144648009352675</v>
+        <v>12.142439399431742</v>
+      </c>
+      <c r="E223">
+        <v>9.6505335307338118</v>
+      </c>
+      <c r="F223">
+        <v>19.111796204520758</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>5.5098383092967386e-171</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>5.5866159374587781e-16</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>9.839138182491237e-128</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>4.3865216663528617e-62</v>
+        <v>7.2560103415624152e-33</v>
+      </c>
+      <c r="E224">
+        <v>4.9504087826332506e-21</v>
+      </c>
+      <c r="F224">
+        <v>3.3764508804009596e-76</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.51770633148638912</v>
+        <v>0.88932851151988879</v>
       </c>
       <c r="B225">
-        <v>0.23865302971312721</v>
+        <v>0.86358758136166403</v>
       </c>
       <c r="C225">
-        <v>0.41846526324179345</v>
+        <v>0.87427722374099659</v>
       </c>
       <c r="D225">
-        <v>0.61270350152431474</v>
+        <v>0.079894171937776828</v>
+      </c>
+      <c r="E225">
+        <v>0.090305157483629425</v>
+      </c>
+      <c r="F225">
+        <v>0.10232479267848862</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.58153473675820655</v>
+        <v>0.92010582806222319</v>
       </c>
       <c r="B226">
-        <v>0.38729649847568515</v>
+        <v>0.90969484251637045</v>
       </c>
       <c r="C226">
-        <v>0.48229366851361088</v>
+        <v>0.89767520732151129</v>
       </c>
       <c r="D226">
-        <v>0.7613469702868727</v>
+        <v>0.11067148848011128</v>
+      </c>
+      <c r="E226">
+        <v>0.13641241863833581</v>
+      </c>
+      <c r="F226">
+        <v>0.12572277625900333</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1071.2657474094701</v>
+        <v>2155.2549334637488</v>
       </c>
       <c r="B227">
-        <v>817.32236756741361</v>
+        <v>895.51626871648125</v>
       </c>
       <c r="C227">
-        <v>1071.2657474094708</v>
+        <v>2547.3647783223237</v>
       </c>
       <c r="D227">
-        <v>817.32236756741293</v>
+        <v>2155.2549334637351</v>
+      </c>
+      <c r="E227">
+        <v>895.51626871646295</v>
+      </c>
+      <c r="F227">
+        <v>2547.3647783223323</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9621809024214294</v>
+        <v>1.9610652841278866</v>
       </c>
       <c r="B228">
-        <v>1.9628707059287975</v>
+        <v>1.9626165619573472</v>
       </c>
       <c r="C228">
-        <v>1.9621809024214294</v>
+        <v>1.9608956844880547</v>
       </c>
       <c r="D228">
-        <v>1.9628707059287975</v>
+        <v>1.9610652841278866</v>
+      </c>
+      <c r="E228">
+        <v>1.9626165619573472</v>
+      </c>
+      <c r="F228">
+        <v>1.9608956844880547</v>
       </c>
     </row>
     <row r="229">
@@ -4409,47 +4511,71 @@
       <c r="D229">
         <v>0</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.79853140751450946</v>
+        <v>0.9506090498382227</v>
       </c>
       <c r="B231">
-        <v>0.83908828728146878</v>
+        <v>0.95985731725237922</v>
       </c>
       <c r="C231">
-        <v>0.20146859248549057</v>
+        <v>0.95888056707297464</v>
       </c>
       <c r="D231">
-        <v>0.1609117127185313</v>
+        <v>0.049390950161777275</v>
+      </c>
+      <c r="E231">
+        <v>0.040142682747620714</v>
+      </c>
+      <c r="F231">
+        <v>0.04111943292702535</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.013191146678499627</v>
+        <v>0.0059955928716183314</v>
       </c>
       <c r="B232">
-        <v>0.028768265520857296</v>
+        <v>0.0080088471305271719</v>
       </c>
       <c r="C232">
-        <v>0.013191146678499627</v>
+        <v>0.0038713631785681421</v>
       </c>
       <c r="D232">
-        <v>0.028768265520857303</v>
+        <v>0.0059955928716183349</v>
+      </c>
+      <c r="E232">
+        <v>0.0080088471305271788</v>
+      </c>
+      <c r="F232">
+        <v>0.0038713631785681291</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>60.535405069526156</v>
+        <v>158.55130096277438</v>
       </c>
       <c r="B233">
-        <v>29.167149012620204</v>
+        <v>119.84962399815439</v>
       </c>
       <c r="C233">
-        <v>15.27301586403145</v>
+        <v>247.68551098004323</v>
       </c>
       <c r="D233">
-        <v>5.593375540901782</v>
+        <v>8.2378759230937622</v>
+      </c>
+      <c r="E233">
+        <v>5.0122922929330951</v>
+      </c>
+      <c r="F233">
+        <v>10.62143514580667</v>
       </c>
     </row>
     <row r="234">
@@ -4457,69 +4583,99 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>3.5033685271006627e-134</v>
+        <v>2.3046903757120664e-214</v>
       </c>
       <c r="C234">
-        <v>8.8283889049587543e-48</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>2.9090965928781703e-08</v>
+        <v>6.4044980315696811e-16</v>
+      </c>
+      <c r="E234">
+        <v>1.0517937441067253e-06</v>
+      </c>
+      <c r="F234">
+        <v>1.6492402925564218e-25</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.77264789385266508</v>
+        <v>0.9388415320934097</v>
       </c>
       <c r="B235">
-        <v>0.78263182857544689</v>
+        <v>0.94407983795437056</v>
       </c>
       <c r="C235">
-        <v>0.17558507882364621</v>
+        <v>0.95128706953646802</v>
       </c>
       <c r="D235">
-        <v>0.10445525401250937</v>
+        <v>0.037623432416964281</v>
+      </c>
+      <c r="E235">
+        <v>0.024365203449612068</v>
+      </c>
+      <c r="F235">
+        <v>0.033525935390518707</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.82441492117635384</v>
+        <v>0.96237656758303569</v>
       </c>
       <c r="B236">
-        <v>0.89554474598749068</v>
+        <v>0.97563479655038787</v>
       </c>
       <c r="C236">
-        <v>0.22735210614733492</v>
+        <v>0.96647406460948126</v>
       </c>
       <c r="D236">
-        <v>0.21736817142455322</v>
+        <v>0.061158467906590269</v>
+      </c>
+      <c r="E236">
+        <v>0.055920162045629357</v>
+      </c>
+      <c r="F236">
+        <v>0.048712930463531992</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1067.7074301054747</v>
+        <v>869.95779163421457</v>
       </c>
       <c r="B237">
-        <v>953.09279697378781</v>
+        <v>237.41588896166911</v>
       </c>
       <c r="C237">
-        <v>1067.7074301054747</v>
+        <v>1594.2004573655902</v>
       </c>
       <c r="D237">
-        <v>953.09279697378474</v>
+        <v>869.95779163420116</v>
+      </c>
+      <c r="E237">
+        <v>237.41588896166556</v>
+      </c>
+      <c r="F237">
+        <v>1594.2004573658103</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.9621882989165869</v>
+        <v>1.9626945986472051</v>
       </c>
       <c r="B238">
-        <v>1.9624561190555752</v>
+        <v>1.9700062993923197</v>
       </c>
       <c r="C238">
-        <v>1.9621882989165869</v>
+        <v>1.9614531590692013</v>
       </c>
       <c r="D238">
-        <v>1.9624561190555752</v>
+        <v>1.9626945986472051</v>
+      </c>
+      <c r="E238">
+        <v>1.9700062993923197</v>
+      </c>
+      <c r="F238">
+        <v>1.9614531590692013</v>
       </c>
     </row>
     <row r="239">
@@ -4535,165 +4691,171 @@
       <c r="D239">
         <v>0</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.57841304122869119</v>
+        <v>0.89981567380846417</v>
       </c>
       <c r="B241">
-        <v>0.7248566814138242</v>
+        <v>0.93448633366263789</v>
       </c>
       <c r="C241">
-        <v>0.69602430825271244</v>
+        <v>0.93809827907264443</v>
       </c>
       <c r="D241">
-        <v>0.42158695877130875</v>
+        <v>0.10018432619153581</v>
       </c>
       <c r="E241">
-        <v>0.27514331858617569</v>
+        <v>0.06551366633736222</v>
       </c>
       <c r="F241">
-        <v>0.30397569174728761</v>
+        <v>0.0619017209273557</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.040782768204731888</v>
+        <v>0.010953338436206746</v>
       </c>
       <c r="B242">
-        <v>0.02401285619326678</v>
+        <v>0.006524686115738418</v>
       </c>
       <c r="C242">
-        <v>0.020393316755204997</v>
+        <v>0.0048144391913598856</v>
       </c>
       <c r="D242">
-        <v>0.040782768204731888</v>
+        <v>0.010953338436206746</v>
       </c>
       <c r="E242">
-        <v>0.02401285619326678</v>
+        <v>0.006524686115738418</v>
       </c>
       <c r="F242">
-        <v>0.020393316755204997</v>
+        <v>0.0048144391913598856</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>14.182780293996322</v>
+        <v>82.149901516243077</v>
       </c>
       <c r="B243">
-        <v>30.186191745781347</v>
+        <v>143.22318607917882</v>
       </c>
       <c r="C243">
-        <v>34.130019977013589</v>
+        <v>194.85099754841215</v>
       </c>
       <c r="D243">
-        <v>10.33737966620896</v>
+        <v>9.1464649590641756</v>
       </c>
       <c r="E243">
-        <v>11.458167090648969</v>
+        <v>10.04089164984266</v>
       </c>
       <c r="F243">
-        <v>14.905652444676697</v>
+        <v>12.857514336964956</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>5.0419387549874361e-42</v>
+        <v>0</v>
       </c>
       <c r="B244">
-        <v>6.0238067598765423e-146</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>3.3050385117264953e-174</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>5.8646245832166371e-24</v>
+        <v>8.2978916801046089e-20</v>
       </c>
       <c r="E244">
-        <v>8.8475109643579714e-29</v>
+        <v>1.6554961933190466e-23</v>
       </c>
       <c r="F244">
-        <v>7.2724639318592174e-46</v>
+        <v>2.9046762302579856e-37</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.49839134671828567</v>
+        <v>0.87834248026473527</v>
       </c>
       <c r="B245">
-        <v>0.67773998170934113</v>
+        <v>0.92169517883880758</v>
       </c>
       <c r="C245">
-        <v>0.65600966885288858</v>
+        <v>0.92865993430107663</v>
       </c>
       <c r="D245">
-        <v>0.34156526426090328</v>
+        <v>0.078711132647806936</v>
       </c>
       <c r="E245">
-        <v>0.22802661888169259</v>
+        <v>0.052722511513531932</v>
       </c>
       <c r="F245">
-        <v>0.26396105234746375</v>
+        <v>0.052463376155787916</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.65843473573909672</v>
+        <v>0.92128886735219306</v>
       </c>
       <c r="B246">
-        <v>0.77197338111830727</v>
+        <v>0.9472774884864682</v>
       </c>
       <c r="C246">
-        <v>0.7360389476525363</v>
+        <v>0.94753662384421222</v>
       </c>
       <c r="D246">
-        <v>0.50160865328171422</v>
+        <v>0.12165751973526467</v>
       </c>
       <c r="E246">
-        <v>0.32226001829065876</v>
+        <v>0.078304821161192514</v>
       </c>
       <c r="F246">
-        <v>0.34399033114711147</v>
+        <v>0.071340065698923483</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B247">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C247">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D247">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E247">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F247">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B248">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C248">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D248">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E248">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F248">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="249">
@@ -4718,162 +4880,162 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.64781368207977053</v>
+        <v>0.91539469175832333</v>
       </c>
       <c r="B251">
-        <v>0.49797955179740894</v>
+        <v>0.88174814278396396</v>
       </c>
       <c r="C251">
-        <v>0.46862581230660771</v>
+        <v>0.8894645130904667</v>
       </c>
       <c r="D251">
-        <v>0.35218631792022947</v>
+        <v>0.084605308241676724</v>
       </c>
       <c r="E251">
-        <v>0.50202044820259106</v>
+        <v>0.1182518572160359</v>
       </c>
       <c r="F251">
-        <v>0.5313741876933924</v>
+        <v>0.11053548690953316</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.039377770746966356</v>
+        <v>0.010095463072898454</v>
       </c>
       <c r="B252">
-        <v>0.027283752432216059</v>
+        <v>0.0085135345259371217</v>
       </c>
       <c r="C252">
-        <v>0.021722909420899484</v>
+        <v>0.0060490454067614139</v>
       </c>
       <c r="D252">
-        <v>0.039377770746966356</v>
+        <v>0.010095463072898454</v>
       </c>
       <c r="E252">
-        <v>0.027283752432216059</v>
+        <v>0.0085135345259371217</v>
       </c>
       <c r="F252">
-        <v>0.021722909420899484</v>
+        <v>0.0060490454067614139</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>16.45125332874964</v>
+        <v>90.673868563367378</v>
       </c>
       <c r="B253">
-        <v>18.251871806658293</v>
+        <v>103.5701611472476</v>
       </c>
       <c r="C253">
-        <v>21.572884332691899</v>
+        <v>147.04212867971762</v>
       </c>
       <c r="D253">
-        <v>8.9437850655210518</v>
+        <v>8.3805277311946185</v>
       </c>
       <c r="E253">
-        <v>18.399978135332159</v>
+        <v>13.889866406928022</v>
       </c>
       <c r="F253">
-        <v>24.461464962983293</v>
+        <v>18.273211635340083</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1.7535757839667025e-54</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>3.8304836943735062e-65</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>3.1737206640689632e-86</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>1.5808418506422483e-18</v>
+        <v>6.7247183133734746e-17</v>
       </c>
       <c r="E254">
-        <v>4.7827078378711715e-66</v>
+        <v>4.3298394556698219e-43</v>
       </c>
       <c r="F254">
-        <v>1.1330002877045465e-105</v>
+        <v>2.498048803012804e-72</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.57054879595443597</v>
+        <v>0.89560329813523076</v>
       </c>
       <c r="B255">
-        <v>0.44444488021091749</v>
+        <v>0.8650580007161931</v>
       </c>
       <c r="C255">
-        <v>0.42600231963857593</v>
+        <v>0.87760581598814513</v>
       </c>
       <c r="D255">
-        <v>0.27492143179489492</v>
+        <v>0.064813914618584212</v>
       </c>
       <c r="E255">
-        <v>0.44848577661609962</v>
+        <v>0.10156171514826502</v>
       </c>
       <c r="F255">
-        <v>0.48875069502536062</v>
+        <v>0.098676789807211632</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.72507856820510508</v>
+        <v>0.9351860853814159</v>
       </c>
       <c r="B256">
-        <v>0.55151422338390033</v>
+        <v>0.89843828485173483</v>
       </c>
       <c r="C256">
-        <v>0.5112493049746395</v>
+        <v>0.90132321019278827</v>
       </c>
       <c r="D256">
-        <v>0.42945120404556403</v>
+        <v>0.10439670186476924</v>
       </c>
       <c r="E256">
-        <v>0.55555511978908245</v>
+        <v>0.13494199928380679</v>
       </c>
       <c r="F256">
-        <v>0.57399768036142418</v>
+        <v>0.12239418401185469</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B257">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C257">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D257">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E257">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F257">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B258">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C258">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D258">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E258">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F258">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="259">
@@ -4898,162 +5060,162 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.77377327669153828</v>
+        <v>0.9429961591116196</v>
       </c>
       <c r="B261">
-        <v>0.77716376678876675</v>
+        <v>0.94639885241469579</v>
       </c>
       <c r="C261">
-        <v>0.83534987944067995</v>
+        <v>0.96775172702336576</v>
       </c>
       <c r="D261">
-        <v>0.22622672330846177</v>
+        <v>0.057003840888380272</v>
       </c>
       <c r="E261">
-        <v>0.22283623321123319</v>
+        <v>0.053601147585304078</v>
       </c>
       <c r="F261">
-        <v>0.16465012055932005</v>
+        <v>0.03224827297663433</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.033042158211449936</v>
+        <v>0.0080981336171475037</v>
       </c>
       <c r="B262">
-        <v>0.02311042318785243</v>
+        <v>0.0063950865591080311</v>
       </c>
       <c r="C262">
-        <v>0.016297019902747872</v>
+        <v>0.0035180523790014381</v>
       </c>
       <c r="D262">
-        <v>0.033042158211449936</v>
+        <v>0.0080981336171475037</v>
       </c>
       <c r="E262">
-        <v>0.02311042318785243</v>
+        <v>0.0063950865591080311</v>
       </c>
       <c r="F262">
-        <v>0.016297019902747872</v>
+        <v>0.0035180523790014381</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>23.417758360088186</v>
+        <v>116.44611014010185</v>
       </c>
       <c r="B263">
-        <v>33.628279347012075</v>
+        <v>147.98843513178292</v>
       </c>
       <c r="C263">
-        <v>51.257830230656467</v>
+        <v>275.08167098354909</v>
       </c>
       <c r="D263">
-        <v>6.8466085617273196</v>
+        <v>7.0391331612109624</v>
       </c>
       <c r="E263">
-        <v>9.6422394085956409</v>
+        <v>8.3816140860461186</v>
       </c>
       <c r="F263">
-        <v>10.103081516858065</v>
+        <v>9.1665130312208891</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1.4983862740322552e-98</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>1.3074782512411291e-170</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>1.5490395055618015e-292</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>1.2609460189433012e-11</v>
+        <v>2.1878412560464451e-12</v>
       </c>
       <c r="E264">
-        <v>3.6125554085387051e-21</v>
+        <v>6.6637558100296949e-17</v>
       </c>
       <c r="F264">
-        <v>5.3219306554011646e-23</v>
+        <v>6.9120476638697578e-20</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.70893977943878561</v>
+        <v>0.9271203791823539</v>
       </c>
       <c r="B265">
-        <v>0.73181777126779701</v>
+        <v>0.93386176774298524</v>
       </c>
       <c r="C265">
-        <v>0.80337276740304298</v>
+        <v>0.96085485078136446</v>
       </c>
       <c r="D265">
-        <v>0.1613932260557091</v>
+        <v>0.041128060959114573</v>
       </c>
       <c r="E265">
-        <v>0.17749023769026345</v>
+        <v>0.041064062913593505</v>
       </c>
       <c r="F265">
-        <v>0.13267300852168312</v>
+        <v>0.025351396734633054</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.83860677394429095</v>
+        <v>0.9588719390408853</v>
       </c>
       <c r="B266">
-        <v>0.82250976230973649</v>
+        <v>0.95893593708640634</v>
       </c>
       <c r="C266">
-        <v>0.86732699147831693</v>
+        <v>0.97464860326536706</v>
       </c>
       <c r="D266">
-        <v>0.29106022056121444</v>
+        <v>0.072879620817645971</v>
       </c>
       <c r="E266">
-        <v>0.26818222873220293</v>
+        <v>0.066138232257014651</v>
       </c>
       <c r="F266">
-        <v>0.19662723259695697</v>
+        <v>0.039145149218635607</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B267">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C267">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D267">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E267">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F267">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B268">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C268">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D268">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E268">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F268">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="269">
@@ -5078,162 +5240,162 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.76576235690235683</v>
+        <v>0.96032562609270644</v>
       </c>
       <c r="B271">
-        <v>0.74315081579150277</v>
+        <v>0.9411938942640623</v>
       </c>
       <c r="C271">
-        <v>0.6504794808025115</v>
+        <v>0.91777018363180329</v>
       </c>
       <c r="D271">
-        <v>0.23423764309764311</v>
+        <v>0.03967437390729351</v>
       </c>
       <c r="E271">
-        <v>0.25684918420849717</v>
+        <v>0.058806105735937766</v>
       </c>
       <c r="F271">
-        <v>0.3495205191974885</v>
+        <v>0.082229816368196595</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.047406145915850531</v>
+        <v>0.0086149240649880665</v>
       </c>
       <c r="B272">
-        <v>0.026340753621713422</v>
+        <v>0.00672423331624221</v>
       </c>
       <c r="C272">
-        <v>0.017847868789007505</v>
+        <v>0.0049522822124490667</v>
       </c>
       <c r="D272">
-        <v>0.047406145915850531</v>
+        <v>0.0086149240649880665</v>
       </c>
       <c r="E272">
-        <v>0.026340753621713422</v>
+        <v>0.00672423331624221</v>
       </c>
       <c r="F272">
-        <v>0.017847868789007505</v>
+        <v>0.0049522822124490667</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>16.153229546684571</v>
+        <v>111.472326261768</v>
       </c>
       <c r="B273">
-        <v>28.212967117953024</v>
+        <v>139.97043975119558</v>
       </c>
       <c r="C273">
-        <v>36.445778960630953</v>
+        <v>185.3226743267395</v>
       </c>
       <c r="D273">
-        <v>4.9410817642385974</v>
+        <v>4.6053074418304192</v>
       </c>
       <c r="E273">
-        <v>9.7510188165903191</v>
+        <v>8.7453993593430432</v>
       </c>
       <c r="F273">
-        <v>19.583319629330649</v>
+        <v>16.604428592838865</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>8.837150176816213e-53</v>
+        <v>0</v>
       </c>
       <c r="B274">
-        <v>6.7306620809528675e-132</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>8.9418145207301533e-191</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>8.9879328694425218e-07</v>
+        <v>4.217710420572554e-06</v>
       </c>
       <c r="E274">
-        <v>1.354397010265201e-21</v>
+        <v>2.9651465956245824e-18</v>
       </c>
       <c r="F274">
-        <v>2.1322343535330161e-73</v>
+        <v>2.3410492819962081e-60</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.67274463659092021</v>
+        <v>0.94343671748375446</v>
       </c>
       <c r="B275">
-        <v>0.69146644436999527</v>
+        <v>0.92801154221004667</v>
       </c>
       <c r="C275">
-        <v>0.61545937876515033</v>
+        <v>0.90806160801803715</v>
       </c>
       <c r="D275">
-        <v>0.14121992278620654</v>
+        <v>0.022785465298341571</v>
       </c>
       <c r="E275">
-        <v>0.2051648127869897</v>
+        <v>0.045623753681922091</v>
       </c>
       <c r="F275">
-        <v>0.31450041716012733</v>
+        <v>0.072521240754430408</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.85878007721379346</v>
+        <v>0.97721453470165842</v>
       </c>
       <c r="B276">
-        <v>0.79483518721301027</v>
+        <v>0.95437624631807794</v>
       </c>
       <c r="C276">
-        <v>0.68549958283987267</v>
+        <v>0.92747875924556944</v>
       </c>
       <c r="D276">
-        <v>0.32725536340907968</v>
+        <v>0.056563282516245449</v>
       </c>
       <c r="E276">
-        <v>0.30853355563000467</v>
+        <v>0.071988457789953442</v>
       </c>
       <c r="F276">
-        <v>0.38454062123484967</v>
+        <v>0.091938391981962783</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B277">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C277">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D277">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E277">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F277">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B278">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C278">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D278">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E278">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F278">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="279">
@@ -5258,162 +5420,162 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.40070420875420876</v>
+        <v>0.90127299657690452</v>
       </c>
       <c r="B281">
-        <v>0.45315069319145651</v>
+        <v>0.8759603186807311</v>
       </c>
       <c r="C281">
-        <v>0.54396876534130567</v>
+        <v>0.89517489086141722</v>
       </c>
       <c r="D281">
-        <v>0.59929579124579124</v>
+        <v>0.098727003423095538</v>
       </c>
       <c r="E281">
-        <v>0.54684930680854338</v>
+        <v>0.12403968131926894</v>
       </c>
       <c r="F281">
-        <v>0.45603123465869438</v>
+        <v>0.1048251091385827</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.055268233354659288</v>
+        <v>0.013627764425064375</v>
       </c>
       <c r="B282">
-        <v>0.029923765355427925</v>
+        <v>0.0091728842715517699</v>
       </c>
       <c r="C282">
-        <v>0.018270141921020732</v>
+        <v>0.005324365203163167</v>
       </c>
       <c r="D282">
-        <v>0.055268233354659288</v>
+        <v>0.013627764425064375</v>
       </c>
       <c r="E282">
-        <v>0.029923765355427925</v>
+        <v>0.0091728842715517699</v>
       </c>
       <c r="F282">
-        <v>0.018270141921020732</v>
+        <v>0.005324365203163167</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>7.2501721953525786</v>
+        <v>66.135058434035642</v>
       </c>
       <c r="B283">
-        <v>15.143505097337581</v>
+        <v>95.494535061058343</v>
       </c>
       <c r="C283">
-        <v>29.773647500539763</v>
+        <v>168.1280033776797</v>
       </c>
       <c r="D283">
-        <v>10.84340415587517</v>
+        <v>7.2445487274138269</v>
       </c>
       <c r="E283">
-        <v>18.274749193932887</v>
+        <v>13.522429548572648</v>
       </c>
       <c r="F283">
-        <v>24.960464819050319</v>
+        <v>19.68781350240717</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>7.8780468354965087e-13</v>
+        <v>0</v>
       </c>
       <c r="B284">
-        <v>3.7198248914682449e-47</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>5.3184247519991324e-143</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>4.3632247017429399e-26</v>
+        <v>4.9797927820848188e-13</v>
       </c>
       <c r="E284">
-        <v>2.7792716959699861e-65</v>
+        <v>5.7252710190168859e-41</v>
       </c>
       <c r="F284">
-        <v>4.1446407002975135e-109</v>
+        <v>2.9496156148357074e-83</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.29225993485317414</v>
+        <v>0.87455679267504716</v>
       </c>
       <c r="B285">
-        <v>0.39443593410859273</v>
+        <v>0.85797757118649132</v>
       </c>
       <c r="C285">
-        <v>0.50812010229503302</v>
+        <v>0.88473687461907313</v>
       </c>
       <c r="D285">
-        <v>0.49085151734475663</v>
+        <v>0.07201079952123822</v>
       </c>
       <c r="E285">
-        <v>0.4881345477256796</v>
+        <v>0.10605693382502912</v>
       </c>
       <c r="F285">
-        <v>0.42018257161242178</v>
+        <v>0.094387092896238589</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.50914848265524337</v>
+        <v>0.92798920047876188</v>
       </c>
       <c r="B286">
-        <v>0.51186545227432023</v>
+        <v>0.89394306617497088</v>
       </c>
       <c r="C286">
-        <v>0.57981742838757833</v>
+        <v>0.9056129071037613</v>
       </c>
       <c r="D286">
-        <v>0.70774006514682586</v>
+        <v>0.12544320732495284</v>
       </c>
       <c r="E286">
-        <v>0.6055640658914071</v>
+        <v>0.14202242881350877</v>
       </c>
       <c r="F286">
-        <v>0.49187989770496698</v>
+        <v>0.11526312538092681</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B287">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C287">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D287">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E287">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F287">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B288">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C288">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D288">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E288">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F288">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="289">
@@ -5438,162 +5600,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.83353343434343441</v>
+        <v>0.97331146678151259</v>
       </c>
       <c r="B291">
-        <v>0.80369849101704072</v>
+        <v>0.95455909911718351</v>
       </c>
       <c r="C291">
-        <v>0.80555175385618283</v>
+        <v>0.95391930146906856</v>
       </c>
       <c r="D291">
-        <v>0.16646656565656565</v>
+        <v>0.026688533218487492</v>
       </c>
       <c r="E291">
-        <v>0.19630150898295934</v>
+        <v>0.045440900882816396</v>
       </c>
       <c r="F291">
-        <v>0.19444824614381717</v>
+        <v>0.046080698530931587</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.039831223505992601</v>
+        <v>0.0068370218191292848</v>
       </c>
       <c r="B292">
-        <v>0.023836317582563191</v>
+        <v>0.0059636789138289648</v>
       </c>
       <c r="C292">
-        <v>0.014722600759307827</v>
+        <v>0.0038402680481138449</v>
       </c>
       <c r="D292">
-        <v>0.039831223505992601</v>
+        <v>0.0068370218191292848</v>
       </c>
       <c r="E292">
-        <v>0.023836317582563191</v>
+        <v>0.0059636789138289648</v>
       </c>
       <c r="F292">
-        <v>0.014722600759307827</v>
+        <v>0.0038402680481138449</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>20.926633956349079</v>
+        <v>142.35898210216138</v>
       </c>
       <c r="B293">
-        <v>33.717393143182669</v>
+        <v>160.06212153771224</v>
       </c>
       <c r="C293">
-        <v>54.715316065804615</v>
+        <v>248.39914545485644</v>
       </c>
       <c r="D293">
-        <v>4.1792983243791335</v>
+        <v>3.9035319653091816</v>
       </c>
       <c r="E293">
-        <v>8.2353957696283739</v>
+        <v>7.6196088923307208</v>
       </c>
       <c r="F293">
-        <v>13.207465808708042</v>
+        <v>11.999344304511299</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>5.3282353627704589e-82</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>3.0020997150599747e-171</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>8.8475006613739082e-315</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>3.158453800999818e-05</v>
+        <v>9.6009660258732028e-05</v>
       </c>
       <c r="E294">
-        <v>5.0839682606838323e-16</v>
+        <v>3.0096534692129587e-14</v>
       </c>
       <c r="F294">
-        <v>4.7483417070276504e-37</v>
+        <v>9.748100545778686e-33</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.75537880826774773</v>
+        <v>0.9599080013777993</v>
       </c>
       <c r="B295">
-        <v>0.75692818562066577</v>
+        <v>0.94286775658311206</v>
       </c>
       <c r="C295">
-        <v>0.77666388007464537</v>
+        <v>0.94639074571985859</v>
       </c>
       <c r="D295">
-        <v>0.088311939580879004</v>
+        <v>0.013285067814774178</v>
       </c>
       <c r="E295">
-        <v>0.14953120358658442</v>
+        <v>0.033749558348744893</v>
       </c>
       <c r="F295">
-        <v>0.16556037236227969</v>
+        <v>0.038552142781721643</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.91168806041912109</v>
+        <v>0.98671493218522588</v>
       </c>
       <c r="B296">
-        <v>0.85046879641341566</v>
+        <v>0.96625044165125495</v>
       </c>
       <c r="C296">
-        <v>0.83443962763772028</v>
+        <v>0.96144785721827852</v>
       </c>
       <c r="D296">
-        <v>0.24462119173225227</v>
+        <v>0.040091998622200808</v>
       </c>
       <c r="E296">
-        <v>0.24307181437933426</v>
+        <v>0.057132243416887898</v>
       </c>
       <c r="F296">
-        <v>0.22333611992535465</v>
+        <v>0.05360925428014153</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B297">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="C297">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="D297">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="E297">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="F297">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B298">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="C298">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="D298">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="E298">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="F298">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="299">
@@ -5618,66 +5780,66 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.68626098379796807</v>
+        <v>0.92975564245575482</v>
       </c>
       <c r="B301">
-        <v>0.31373901620203193</v>
+        <v>0.070244357544245073</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.013998707243061285</v>
+        <v>0.0036054057572474331</v>
       </c>
       <c r="B302">
-        <v>0.013998707243061285</v>
+        <v>0.0036054057572474331</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>49.023168488513527</v>
+        <v>257.8782264899865</v>
       </c>
       <c r="B303">
-        <v>22.411999247826429</v>
+        <v>19.483065783384536</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>8.0008306520905914e-278</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>8.7258796798302768e-92</v>
+        <v>1.2440469490423794e-81</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.65879349387866248</v>
+        <v>0.9226875165067624</v>
       </c>
       <c r="B305">
-        <v>0.28627152628272629</v>
+        <v>0.063176231595252694</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.71372847371727366</v>
+        <v>0.93682376840474724</v>
       </c>
       <c r="B306">
-        <v>0.34120650612133757</v>
+        <v>0.077312483493237452</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B307">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B308">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="309">
@@ -5690,66 +5852,66 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.50864749870600412</v>
+        <v>0.89119523330757766</v>
       </c>
       <c r="B311">
-        <v>0.49135250129399582</v>
+        <v>0.10880476669242245</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.014941321372809544</v>
+        <v>0.0042926579107416263</v>
       </c>
       <c r="B312">
-        <v>0.014941321372809544</v>
+        <v>0.0042926579107416263</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>34.043006372358001</v>
+        <v>207.60919035209335</v>
       </c>
       <c r="B313">
-        <v>32.885478401406118</v>
+        <v>25.346712678911015</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1.389673110840093e-173</v>
+        <v>0</v>
       </c>
       <c r="B314">
-        <v>2.7783088078957513e-165</v>
+        <v>1.1272896910297449e-133</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.47933046342103702</v>
+        <v>0.88277980136678436</v>
       </c>
       <c r="B315">
-        <v>0.46203546600902873</v>
+        <v>0.10038933475162909</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.53796453399097122</v>
+        <v>0.89961066524837097</v>
       </c>
       <c r="B316">
-        <v>0.52066953657896287</v>
+        <v>0.11722019863321581</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B317">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B318">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="319">
@@ -5762,26 +5924,26 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.8050915174960277</v>
+        <v>0.95642351443630091</v>
       </c>
       <c r="B321">
-        <v>0.19490848250397227</v>
+        <v>0.043576485563699217</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.01178197340286764</v>
+        <v>0.0028877281850168877</v>
       </c>
       <c r="B322">
-        <v>0.01178197340286764</v>
+        <v>0.0028877281850168877</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>68.332484717719254</v>
+        <v>331.2027494134486</v>
       </c>
       <c r="B323">
-        <v>16.542940290166761</v>
+        <v>15.090231064612606</v>
       </c>
     </row>
     <row r="324">
@@ -5789,39 +5951,39 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>5.2053953024681361e-55</v>
+        <v>2.2112498095569338e-50</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.78197358024270003</v>
+        <v>0.95076234121685799</v>
       </c>
       <c r="B325">
-        <v>0.17179054525064463</v>
+        <v>0.037915312344256283</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.82820945474935537</v>
+        <v>0.96208468765574384</v>
       </c>
       <c r="B326">
-        <v>0.21802641975729992</v>
+        <v>0.049237658783142152</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
       <c r="B327">
-        <v>1089.0054844606948</v>
+        <v>5152.0011634671318</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
       <c r="B328">
-        <v>1.9621447496818241</v>
+        <v>1.9604245471634734</v>
       </c>
     </row>
     <row r="329">
